--- a/backtesting/subperiod_stats.xlsx
+++ b/backtesting/subperiod_stats.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U93"/>
+  <dimension ref="A1:R93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,33 +472,30 @@
       <c r="D1" s="1" t="n"/>
       <c r="E1" s="1" t="n"/>
       <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Estrategia</t>
         </is>
       </c>
+      <c r="H1" s="1" t="n"/>
       <c r="I1" s="1" t="n"/>
       <c r="J1" s="1" t="n"/>
       <c r="K1" s="1" t="n"/>
-      <c r="L1" s="1" t="n"/>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>S&amp;P-500</t>
+        </is>
+      </c>
       <c r="M1" s="1" t="n"/>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>S&amp;P-500</t>
-        </is>
-      </c>
+      <c r="N1" s="1" t="n"/>
       <c r="O1" s="1" t="n"/>
       <c r="P1" s="1" t="n"/>
-      <c r="Q1" s="1" t="n"/>
-      <c r="R1" s="1" t="n"/>
-      <c r="S1" s="1" t="n"/>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>q days</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>position</t>
         </is>
@@ -533,71 +530,56 @@
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>%30d</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
+          <t>%60d</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>%90d</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>%180d</t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>%total</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
           <t>%30d</t>
         </is>
       </c>
-      <c r="I2" s="1" t="inlineStr">
+      <c r="M2" s="1" t="inlineStr">
         <is>
           <t>%60d</t>
         </is>
       </c>
-      <c r="J2" s="1" t="inlineStr">
+      <c r="N2" s="1" t="inlineStr">
         <is>
           <t>%90d</t>
         </is>
       </c>
-      <c r="K2" s="1" t="inlineStr">
+      <c r="O2" s="1" t="inlineStr">
         <is>
           <t>%180d</t>
         </is>
       </c>
-      <c r="L2" s="1" t="inlineStr">
+      <c r="P2" s="1" t="inlineStr">
         <is>
           <t>%total</t>
         </is>
       </c>
-      <c r="M2" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="N2" s="1" t="inlineStr">
-        <is>
-          <t>%30d</t>
-        </is>
-      </c>
-      <c r="O2" s="1" t="inlineStr">
-        <is>
-          <t>%60d</t>
-        </is>
-      </c>
-      <c r="P2" s="1" t="inlineStr">
-        <is>
-          <t>%90d</t>
-        </is>
-      </c>
-      <c r="Q2" s="1" t="inlineStr">
-        <is>
-          <t>%180d</t>
-        </is>
-      </c>
-      <c r="R2" s="1" t="inlineStr">
-        <is>
-          <t>%total</t>
-        </is>
-      </c>
-      <c r="S2" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="T2" s="1" t="inlineStr"/>
-      <c r="U2" s="1" t="inlineStr"/>
+      <c r="Q2" s="1" t="inlineStr"/>
+      <c r="R2" s="1" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -613,37 +595,41 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03049797698319087</v>
+        <v>0.03049755608943399</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03049797698319087</v>
+        <v>0.03049755608943399</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03049797698319087</v>
+        <v>0.03049755608943399</v>
       </c>
       <c r="E4" t="n">
-        <v>0.03049797698319087</v>
+        <v>0.03049755608943399</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03049797698319087</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
+        <v>0.03049755608943399</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0304975560894338</v>
+      </c>
       <c r="H4" t="n">
-        <v>0.03049797698319106</v>
+        <v>0.0304975560894338</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03049797698319106</v>
+        <v>0.0304975560894338</v>
       </c>
       <c r="J4" t="n">
-        <v>0.03049797698319106</v>
+        <v>0.0304975560894338</v>
       </c>
       <c r="K4" t="n">
-        <v>0.03049797698319106</v>
+        <v>0.0304975560894338</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03049797698319106</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+        <v>-0.009923746383622371</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-0.009923746383622371</v>
+      </c>
       <c r="N4" t="n">
         <v>-0.009923746383622371</v>
       </c>
@@ -654,16 +640,9 @@
         <v>-0.009923746383622371</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.009923746383622371</v>
+        <v>29</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.009923746383622371</v>
-      </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="n">
-        <v>29</v>
-      </c>
-      <c r="U4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -674,37 +653,41 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03301405315785778</v>
+        <v>0.0330133317833544</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03301405315785778</v>
+        <v>0.0330133317833544</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03301405315785778</v>
+        <v>0.0330133317833544</v>
       </c>
       <c r="E5" t="n">
-        <v>0.03301405315785778</v>
+        <v>0.0330133317833544</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03301405315785778</v>
-      </c>
-      <c r="G5" t="inlineStr"/>
+        <v>0.0330133317833544</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-0.03301333178335431</v>
+      </c>
       <c r="H5" t="n">
-        <v>-0.03301405315785784</v>
+        <v>-0.03301333178335431</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.03301405315785784</v>
+        <v>-0.03301333178335431</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.03301405315785784</v>
+        <v>-0.03301333178335431</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.03301405315785784</v>
+        <v>-0.03301333178335431</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.03301405315785784</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+        <v>0.01498041416408217</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.01498041416408217</v>
+      </c>
       <c r="N5" t="n">
         <v>0.01498041416408217</v>
       </c>
@@ -715,16 +698,9 @@
         <v>0.01498041416408217</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01498041416408217</v>
+        <v>1</v>
       </c>
       <c r="R5" t="n">
-        <v>0.01498041416408217</v>
-      </c>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="n">
-        <v>1</v>
-      </c>
-      <c r="U5" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -735,37 +711,41 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.02382011741111668</v>
+        <v>-0.02382040548061544</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.02382011741111668</v>
+        <v>-0.02382040548061544</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.02382011741111668</v>
+        <v>-0.02382040548061544</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.02382011741111668</v>
+        <v>-0.02382040548061544</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.02382011741111668</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
+        <v>-0.02382040548061544</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0.02382040548061547</v>
+      </c>
       <c r="H6" t="n">
-        <v>-0.02382011741111684</v>
+        <v>-0.02382040548061547</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.02382011741111684</v>
+        <v>-0.02382040548061547</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.02382011741111684</v>
+        <v>-0.02382040548061547</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.02382011741111684</v>
+        <v>-0.02382040548061547</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.02382011741111684</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>0.0009176441131014307</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.0009176441131014307</v>
+      </c>
       <c r="N6" t="n">
         <v>0.0009176441131014307</v>
       </c>
@@ -776,16 +756,9 @@
         <v>0.0009176441131014307</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.0009176441131014307</v>
+        <v>16</v>
       </c>
       <c r="R6" t="n">
-        <v>0.0009176441131014307</v>
-      </c>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="n">
-        <v>16</v>
-      </c>
-      <c r="U6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -796,39 +769,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1766045233187878</v>
+        <v>-0.1766045757878838</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.1197597146268833</v>
+        <v>-0.1197596621577874</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.1197597146268833</v>
+        <v>-0.1197596621577874</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.1197597146268833</v>
+        <v>-0.1197596621577874</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1197597146268833</v>
-      </c>
-      <c r="G7" t="inlineStr"/>
+        <v>-0.1197596621577874</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.1103545280867575</v>
+      </c>
       <c r="H7" t="n">
-        <v>0.1103545744474863</v>
+        <v>0.02195399450110957</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0219541920211485</v>
+        <v>0.02195399450110957</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0219541920211485</v>
+        <v>0.02195399450110957</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0219541920211485</v>
+        <v>0.02195399450110957</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0219541920211485</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>-0.2325962320383827</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-0.1742805798272869</v>
+      </c>
       <c r="N7" t="n">
-        <v>-0.2325962320383827</v>
+        <v>-0.1742805798272869</v>
       </c>
       <c r="O7" t="n">
         <v>-0.1742805798272869</v>
@@ -837,16 +814,9 @@
         <v>-0.1742805798272869</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.1742805798272869</v>
+        <v>42</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.1742805798272869</v>
-      </c>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="n">
-        <v>42</v>
-      </c>
-      <c r="U7" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -863,7 +833,7 @@
         <v>0.281260510237367</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4449450058849791</v>
+        <v>0.4449448852726084</v>
       </c>
       <c r="E8" t="n">
         <v>0.435398416130409</v>
@@ -871,43 +841,40 @@
       <c r="F8" t="n">
         <v>0.435398416130409</v>
       </c>
-      <c r="G8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>0.1707976705167948</v>
+      </c>
       <c r="H8" t="n">
-        <v>0.1707976705167945</v>
+        <v>0.2812605102373671</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2812605102373667</v>
+        <v>0.4449448852726087</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4449450058849785</v>
+        <v>0.4353984161304095</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4353984161304086</v>
+        <v>0.4353984161304095</v>
       </c>
       <c r="L8" t="n">
-        <v>0.4353984161304086</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>0.08339445088439368</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.2009919633289186</v>
+      </c>
       <c r="N8" t="n">
-        <v>0.08339445088439368</v>
+        <v>0.1956486874116573</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2009919633289186</v>
+        <v>0.2166834068625899</v>
       </c>
       <c r="P8" t="n">
-        <v>0.1956486874116573</v>
+        <v>0.2166834068625899</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.2166834068625899</v>
+        <v>107</v>
       </c>
       <c r="R8" t="n">
-        <v>0.2166834068625899</v>
-      </c>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="n">
-        <v>107</v>
-      </c>
-      <c r="U8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -918,37 +885,41 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02370015768937888</v>
+        <v>0.02370041239313954</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02370015768937888</v>
+        <v>0.02370041239313954</v>
       </c>
       <c r="D9" t="n">
-        <v>0.02370015768937888</v>
+        <v>0.02370041239313954</v>
       </c>
       <c r="E9" t="n">
-        <v>0.02370015768937888</v>
+        <v>0.02370041239313954</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02370015768937888</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
+        <v>0.02370041239313954</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-0.02370041239313942</v>
+      </c>
       <c r="H9" t="n">
-        <v>-0.02370015768937897</v>
+        <v>-0.02370041239313942</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.02370015768937897</v>
+        <v>-0.02370041239313942</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.02370015768937897</v>
+        <v>-0.02370041239313942</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.02370015768937897</v>
+        <v>-0.02370041239313942</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.02370015768937897</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>0.007395138795039487</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.007395138795039487</v>
+      </c>
       <c r="N9" t="n">
         <v>0.007395138795039487</v>
       </c>
@@ -959,16 +930,9 @@
         <v>0.007395138795039487</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.007395138795039487</v>
+        <v>3</v>
       </c>
       <c r="R9" t="n">
-        <v>0.007395138795039487</v>
-      </c>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="n">
-        <v>3</v>
-      </c>
-      <c r="U9" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -993,7 +957,9 @@
       <c r="F10" t="n">
         <v>0</v>
       </c>
-      <c r="G10" t="inlineStr"/>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
@@ -1009,7 +975,9 @@
       <c r="L10" t="n">
         <v>0</v>
       </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
@@ -1023,13 +991,6 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1054,7 +1015,9 @@
       <c r="F11" t="n">
         <v>0</v>
       </c>
-      <c r="G11" t="inlineStr"/>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
@@ -1070,7 +1033,9 @@
       <c r="L11" t="n">
         <v>0</v>
       </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
@@ -1084,13 +1049,6 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1101,39 +1059,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.299849614961746</v>
+        <v>0.2998496960668254</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1750016464331122</v>
+        <v>0.175001808643271</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1750016464331122</v>
+        <v>0.175001808643271</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1750016464331122</v>
+        <v>0.175001808643271</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1750016464331122</v>
-      </c>
-      <c r="G12" t="inlineStr"/>
+        <v>0.175001808643271</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.2998496960668245</v>
+      </c>
       <c r="H12" t="n">
-        <v>0.2998496149617456</v>
+        <v>0.1750018086432703</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1750016464331118</v>
+        <v>0.1750018086432703</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1750016464331118</v>
+        <v>0.1750018086432703</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1750016464331118</v>
+        <v>0.1750018086432703</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1750016464331118</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>0.08064457782440319</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.02637532821565226</v>
+      </c>
       <c r="N12" t="n">
-        <v>0.08064457782440319</v>
+        <v>0.02637532821565226</v>
       </c>
       <c r="O12" t="n">
         <v>0.02637532821565226</v>
@@ -1142,16 +1104,9 @@
         <v>0.02637532821565226</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.02637532821565226</v>
+        <v>40</v>
       </c>
       <c r="R12" t="n">
-        <v>0.02637532821565226</v>
-      </c>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="n">
-        <v>40</v>
-      </c>
-      <c r="U12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1162,37 +1117,41 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.01287080940492669</v>
+        <v>-0.0128707430270172</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.01287080940492669</v>
+        <v>-0.0128707430270172</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.01287080940492669</v>
+        <v>-0.0128707430270172</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.01287080940492669</v>
+        <v>-0.0128707430270172</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.01287080940492669</v>
-      </c>
-      <c r="G13" t="inlineStr"/>
+        <v>-0.0128707430270172</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.00338898890854252</v>
+      </c>
       <c r="H13" t="n">
-        <v>0.00338906190569909</v>
+        <v>0.00338898890854252</v>
       </c>
       <c r="I13" t="n">
-        <v>0.00338906190569909</v>
+        <v>0.00338898890854252</v>
       </c>
       <c r="J13" t="n">
-        <v>0.00338906190569909</v>
+        <v>0.00338898890854252</v>
       </c>
       <c r="K13" t="n">
-        <v>0.00338906190569909</v>
+        <v>0.00338898890854252</v>
       </c>
       <c r="L13" t="n">
-        <v>0.00338906190569909</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>-0.01057969536292553</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-0.01057969536292553</v>
+      </c>
       <c r="N13" t="n">
         <v>-0.01057969536292553</v>
       </c>
@@ -1203,16 +1162,9 @@
         <v>-0.01057969536292553</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.01057969536292553</v>
+        <v>21</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.01057969536292553</v>
-      </c>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="n">
-        <v>21</v>
-      </c>
-      <c r="U13" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1223,37 +1175,41 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.03228004067161101</v>
+        <v>-0.03228023640420759</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.03228004067161101</v>
+        <v>-0.03228023640420759</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.03228004067161101</v>
+        <v>-0.03228023640420759</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.03228004067161101</v>
+        <v>-0.03228023640420759</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.03228004067161101</v>
-      </c>
-      <c r="G14" t="inlineStr"/>
+        <v>-0.03228023640420759</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-0.03228023640420761</v>
+      </c>
       <c r="H14" t="n">
-        <v>-0.03228004067161103</v>
+        <v>-0.03228023640420761</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.03228004067161103</v>
+        <v>-0.03228023640420761</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.03228004067161103</v>
+        <v>-0.03228023640420761</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.03228004067161103</v>
+        <v>-0.03228023640420761</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.03228004067161103</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>-0.009577652178616364</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-0.009577652178616364</v>
+      </c>
       <c r="N14" t="n">
         <v>-0.009577652178616364</v>
       </c>
@@ -1264,16 +1220,9 @@
         <v>-0.009577652178616364</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.009577652178616364</v>
+        <v>1</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.009577652178616364</v>
-      </c>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="n">
-        <v>1</v>
-      </c>
-      <c r="U14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1298,7 +1247,9 @@
       <c r="F15" t="n">
         <v>0</v>
       </c>
-      <c r="G15" t="inlineStr"/>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
@@ -1314,7 +1265,9 @@
       <c r="L15" t="n">
         <v>0</v>
       </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
@@ -1328,13 +1281,6 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1345,37 +1291,41 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.02288800836883258</v>
+        <v>0.02288786758241535</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02288800836883258</v>
+        <v>0.02288786758241535</v>
       </c>
       <c r="D16" t="n">
-        <v>0.02288800836883258</v>
+        <v>0.02288786758241535</v>
       </c>
       <c r="E16" t="n">
-        <v>0.02288800836883258</v>
+        <v>0.02288786758241535</v>
       </c>
       <c r="F16" t="n">
-        <v>0.02288800836883258</v>
-      </c>
-      <c r="G16" t="inlineStr"/>
+        <v>0.02288786758241535</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.02288786758241506</v>
+      </c>
       <c r="H16" t="n">
-        <v>0.02288800836883273</v>
+        <v>0.02288786758241506</v>
       </c>
       <c r="I16" t="n">
-        <v>0.02288800836883273</v>
+        <v>0.02288786758241506</v>
       </c>
       <c r="J16" t="n">
-        <v>0.02288800836883273</v>
+        <v>0.02288786758241506</v>
       </c>
       <c r="K16" t="n">
-        <v>0.02288800836883273</v>
+        <v>0.02288786758241506</v>
       </c>
       <c r="L16" t="n">
-        <v>0.02288800836883273</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>0.02752777333261759</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.02752777333261759</v>
+      </c>
       <c r="N16" t="n">
         <v>0.02752777333261759</v>
       </c>
@@ -1386,16 +1336,9 @@
         <v>0.02752777333261759</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.02752777333261759</v>
+        <v>16</v>
       </c>
       <c r="R16" t="n">
-        <v>0.02752777333261759</v>
-      </c>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="n">
-        <v>16</v>
-      </c>
-      <c r="U16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1406,37 +1349,41 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.03468356079015607</v>
+        <v>0.03468362848362434</v>
       </c>
       <c r="C17" t="n">
-        <v>0.03468356079015607</v>
+        <v>0.03468362848362434</v>
       </c>
       <c r="D17" t="n">
-        <v>0.03468356079015607</v>
+        <v>0.03468362848362434</v>
       </c>
       <c r="E17" t="n">
-        <v>0.03468356079015607</v>
+        <v>0.03468362848362434</v>
       </c>
       <c r="F17" t="n">
-        <v>0.03468356079015607</v>
-      </c>
-      <c r="G17" t="inlineStr"/>
+        <v>0.03468362848362434</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-0.04314846155411243</v>
+      </c>
       <c r="H17" t="n">
-        <v>-0.04314839884144684</v>
+        <v>-0.04314846155411243</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.04314839884144684</v>
+        <v>-0.04314846155411243</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.04314839884144684</v>
+        <v>-0.04314846155411243</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.04314839884144684</v>
+        <v>-0.04314846155411243</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.04314839884144684</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>0.01300288278968429</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.01300288278968429</v>
+      </c>
       <c r="N17" t="n">
         <v>0.01300288278968429</v>
       </c>
@@ -1447,16 +1394,9 @@
         <v>0.01300288278968429</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.01300288278968429</v>
+        <v>13</v>
       </c>
       <c r="R17" t="n">
-        <v>0.01300288278968429</v>
-      </c>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="n">
-        <v>13</v>
-      </c>
-      <c r="U17" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1467,37 +1407,41 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.0407783947466876</v>
+        <v>-0.04077852574414415</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.0407783947466876</v>
+        <v>-0.04077852574414415</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.0407783947466876</v>
+        <v>-0.04077852574414415</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.0407783947466876</v>
+        <v>-0.04077852574414415</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.0407783947466876</v>
-      </c>
-      <c r="G18" t="inlineStr"/>
+        <v>-0.04077852574414415</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-0.04077852574414399</v>
+      </c>
       <c r="H18" t="n">
-        <v>-0.04077839474668738</v>
+        <v>-0.04077852574414399</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.04077839474668738</v>
+        <v>-0.04077852574414399</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.04077839474668738</v>
+        <v>-0.04077852574414399</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.04077839474668738</v>
+        <v>-0.04077852574414399</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.04077839474668738</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>0.01941909467670414</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.01941909467670414</v>
+      </c>
       <c r="N18" t="n">
         <v>0.01941909467670414</v>
       </c>
@@ -1508,16 +1452,9 @@
         <v>0.01941909467670414</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.01941909467670414</v>
+        <v>17</v>
       </c>
       <c r="R18" t="n">
-        <v>0.01941909467670414</v>
-      </c>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="n">
-        <v>17</v>
-      </c>
-      <c r="U18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1528,37 +1465,41 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.0123296605354067</v>
+        <v>0.01232952553419641</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0123296605354067</v>
+        <v>0.01232952553419641</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0123296605354067</v>
+        <v>0.01232952553419641</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0123296605354067</v>
+        <v>0.01232952553419641</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0123296605354067</v>
-      </c>
-      <c r="G19" t="inlineStr"/>
+        <v>0.01232952553419641</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-0.01225744776985769</v>
+      </c>
       <c r="H19" t="n">
-        <v>-0.01225758112372423</v>
+        <v>-0.01225744776985769</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.01225758112372423</v>
+        <v>-0.01225744776985769</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.01225758112372423</v>
+        <v>-0.01225744776985769</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.01225758112372423</v>
+        <v>-0.01225744776985769</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.01225758112372423</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>0.0008087631430726378</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.0008087631430726378</v>
+      </c>
       <c r="N19" t="n">
         <v>0.0008087631430726378</v>
       </c>
@@ -1569,16 +1510,9 @@
         <v>0.0008087631430726378</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.0008087631430726378</v>
+        <v>3</v>
       </c>
       <c r="R19" t="n">
-        <v>0.0008087631430726378</v>
-      </c>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="n">
-        <v>3</v>
-      </c>
-      <c r="U19" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1589,39 +1523,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1232255604576767</v>
+        <v>0.1232256910590129</v>
       </c>
       <c r="C20" t="n">
-        <v>0.06341876815644264</v>
+        <v>0.06341889875777885</v>
       </c>
       <c r="D20" t="n">
-        <v>0.06341876815644264</v>
+        <v>0.06341889875777885</v>
       </c>
       <c r="E20" t="n">
-        <v>0.06341876815644264</v>
+        <v>0.06341889875777885</v>
       </c>
       <c r="F20" t="n">
-        <v>0.06341876815644264</v>
-      </c>
-      <c r="G20" t="inlineStr"/>
+        <v>0.06341889875777885</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.1232256910590126</v>
+      </c>
       <c r="H20" t="n">
-        <v>0.1232255604576767</v>
+        <v>0.06341889875777876</v>
       </c>
       <c r="I20" t="n">
-        <v>0.06341876815644254</v>
+        <v>0.06341889875777876</v>
       </c>
       <c r="J20" t="n">
-        <v>0.06341876815644254</v>
+        <v>0.06341889875777876</v>
       </c>
       <c r="K20" t="n">
-        <v>0.06341876815644254</v>
+        <v>0.06341889875777876</v>
       </c>
       <c r="L20" t="n">
-        <v>0.06341876815644254</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>0.03048631688566067</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.0349317886860872</v>
+      </c>
       <c r="N20" t="n">
-        <v>0.03048631688566067</v>
+        <v>0.0349317886860872</v>
       </c>
       <c r="O20" t="n">
         <v>0.0349317886860872</v>
@@ -1630,16 +1568,9 @@
         <v>0.0349317886860872</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.0349317886860872</v>
+        <v>37</v>
       </c>
       <c r="R20" t="n">
-        <v>0.0349317886860872</v>
-      </c>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="n">
-        <v>37</v>
-      </c>
-      <c r="U20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1664,7 +1595,9 @@
       <c r="F21" t="n">
         <v>0</v>
       </c>
-      <c r="G21" t="inlineStr"/>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
@@ -1680,7 +1613,9 @@
       <c r="L21" t="n">
         <v>0</v>
       </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
@@ -1694,13 +1629,6 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1711,37 +1639,41 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.02324883830870228</v>
+        <v>-0.02324883557129243</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.02324883830870228</v>
+        <v>-0.02324883557129243</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.02324883830870228</v>
+        <v>-0.02324883557129243</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.02324883830870228</v>
+        <v>-0.02324883557129243</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.02324883830870228</v>
-      </c>
-      <c r="G22" t="inlineStr"/>
+        <v>-0.02324883557129243</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-0.02324883557129245</v>
+      </c>
       <c r="H22" t="n">
-        <v>-0.02324883830870228</v>
+        <v>-0.02324883557129245</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.02324883830870228</v>
+        <v>-0.02324883557129245</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.02324883830870228</v>
+        <v>-0.02324883557129245</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.02324883830870228</v>
+        <v>-0.02324883557129245</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.02324883830870228</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>-0.006554750898592477</v>
+      </c>
+      <c r="M22" t="n">
+        <v>-0.006554750898592477</v>
+      </c>
       <c r="N22" t="n">
         <v>-0.006554750898592477</v>
       </c>
@@ -1752,16 +1684,9 @@
         <v>-0.006554750898592477</v>
       </c>
       <c r="Q22" t="n">
-        <v>-0.006554750898592477</v>
+        <v>3</v>
       </c>
       <c r="R22" t="n">
-        <v>-0.006554750898592477</v>
-      </c>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="n">
-        <v>3</v>
-      </c>
-      <c r="U22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1772,37 +1697,41 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01622650569889318</v>
+        <v>0.01622656507698144</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01622650569889318</v>
+        <v>0.01622656507698144</v>
       </c>
       <c r="D23" t="n">
-        <v>0.01622650569889318</v>
+        <v>0.01622656507698144</v>
       </c>
       <c r="E23" t="n">
-        <v>0.01622650569889318</v>
+        <v>0.01622656507698144</v>
       </c>
       <c r="F23" t="n">
-        <v>0.01622650569889318</v>
-      </c>
-      <c r="G23" t="inlineStr"/>
+        <v>0.01622656507698144</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-0.01622656507698151</v>
+      </c>
       <c r="H23" t="n">
-        <v>-0.01622650569889331</v>
+        <v>-0.01622656507698151</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.01622650569889331</v>
+        <v>-0.01622656507698151</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.01622650569889331</v>
+        <v>-0.01622656507698151</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.01622650569889331</v>
+        <v>-0.01622656507698151</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.01622650569889331</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>0.002275641737906651</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.002275641737906651</v>
+      </c>
       <c r="N23" t="n">
         <v>0.002275641737906651</v>
       </c>
@@ -1813,16 +1742,9 @@
         <v>0.002275641737906651</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.002275641737906651</v>
+        <v>1</v>
       </c>
       <c r="R23" t="n">
-        <v>0.002275641737906651</v>
-      </c>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="n">
-        <v>1</v>
-      </c>
-      <c r="U23" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1847,7 +1769,9 @@
       <c r="F24" t="n">
         <v>0</v>
       </c>
-      <c r="G24" t="inlineStr"/>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
@@ -1863,7 +1787,9 @@
       <c r="L24" t="n">
         <v>0</v>
       </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
@@ -1877,13 +1803,6 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1894,37 +1813,41 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.03846152435102873</v>
+        <v>0.03846158784832554</v>
       </c>
       <c r="C25" t="n">
-        <v>0.03846152435102873</v>
+        <v>0.03846158784832554</v>
       </c>
       <c r="D25" t="n">
-        <v>0.03846152435102873</v>
+        <v>0.03846158784832554</v>
       </c>
       <c r="E25" t="n">
-        <v>0.03846152435102873</v>
+        <v>0.03846158784832554</v>
       </c>
       <c r="F25" t="n">
-        <v>0.03846152435102873</v>
-      </c>
-      <c r="G25" t="inlineStr"/>
+        <v>0.03846158784832554</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-0.03810496062426914</v>
+      </c>
       <c r="H25" t="n">
-        <v>-0.03810489449435876</v>
+        <v>-0.03810496062426914</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.03810489449435876</v>
+        <v>-0.03810496062426914</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.03810489449435876</v>
+        <v>-0.03810496062426914</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.03810489449435876</v>
+        <v>-0.03810496062426914</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.03810489449435876</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>0.02218539047468984</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.02218539047468984</v>
+      </c>
       <c r="N25" t="n">
         <v>0.02218539047468984</v>
       </c>
@@ -1935,16 +1858,9 @@
         <v>0.02218539047468984</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.02218539047468984</v>
+        <v>5</v>
       </c>
       <c r="R25" t="n">
-        <v>0.02218539047468984</v>
-      </c>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" t="n">
-        <v>5</v>
-      </c>
-      <c r="U25" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1955,37 +1871,41 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.03587339925545947</v>
+        <v>-0.03587341148084575</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.03587339925545947</v>
+        <v>-0.03587341148084575</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.03587339925545947</v>
+        <v>-0.03587341148084575</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.03587339925545947</v>
+        <v>-0.03587341148084575</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.03587339925545947</v>
-      </c>
-      <c r="G26" t="inlineStr"/>
+        <v>-0.03587341148084575</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-0.03587341148084562</v>
+      </c>
       <c r="H26" t="n">
-        <v>-0.03587339925545923</v>
+        <v>-0.03587341148084562</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.03587339925545923</v>
+        <v>-0.03587341148084562</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.03587339925545923</v>
+        <v>-0.03587341148084562</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.03587339925545923</v>
+        <v>-0.03587341148084562</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.03587339925545923</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>-0.03603102867633897</v>
+      </c>
+      <c r="M26" t="n">
+        <v>-0.03603102867633897</v>
+      </c>
       <c r="N26" t="n">
         <v>-0.03603102867633897</v>
       </c>
@@ -1996,16 +1916,9 @@
         <v>-0.03603102867633897</v>
       </c>
       <c r="Q26" t="n">
-        <v>-0.03603102867633897</v>
+        <v>8</v>
       </c>
       <c r="R26" t="n">
-        <v>-0.03603102867633897</v>
-      </c>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="n">
-        <v>8</v>
-      </c>
-      <c r="U26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2030,7 +1943,9 @@
       <c r="F27" t="n">
         <v>0</v>
       </c>
-      <c r="G27" t="inlineStr"/>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
@@ -2046,7 +1961,9 @@
       <c r="L27" t="n">
         <v>0</v>
       </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
@@ -2060,13 +1977,6 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" t="n">
-        <v>0</v>
-      </c>
-      <c r="U27" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2091,23 +2001,27 @@
       <c r="F28" t="n">
         <v>0.002533028598966356</v>
       </c>
-      <c r="G28" t="inlineStr"/>
+      <c r="G28" t="n">
+        <v>0.002533028598966393</v>
+      </c>
       <c r="H28" t="n">
-        <v>0.002533028598966498</v>
+        <v>0.002533028598966393</v>
       </c>
       <c r="I28" t="n">
-        <v>0.002533028598966498</v>
+        <v>0.002533028598966393</v>
       </c>
       <c r="J28" t="n">
-        <v>0.002533028598966498</v>
+        <v>0.002533028598966393</v>
       </c>
       <c r="K28" t="n">
-        <v>0.002533028598966498</v>
+        <v>0.002533028598966393</v>
       </c>
       <c r="L28" t="n">
-        <v>0.002533028598966498</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>0.02353960417202901</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.02353960417202901</v>
+      </c>
       <c r="N28" t="n">
         <v>0.02353960417202901</v>
       </c>
@@ -2118,16 +2032,9 @@
         <v>0.02353960417202901</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.02353960417202901</v>
+        <v>9</v>
       </c>
       <c r="R28" t="n">
-        <v>0.02353960417202901</v>
-      </c>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="n">
-        <v>9</v>
-      </c>
-      <c r="U28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2138,39 +2045,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.1059318792593239</v>
+        <v>-0.1059317767232377</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.07239424249906561</v>
+        <v>-0.0723940787742848</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.07239424249906561</v>
+        <v>-0.0723940787742848</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.07239424249906561</v>
+        <v>-0.0723940787742848</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.07239424249906561</v>
-      </c>
-      <c r="G29" t="inlineStr"/>
+        <v>-0.0723940787742848</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.1063804032995568</v>
+      </c>
       <c r="H29" t="n">
-        <v>0.1063805700533813</v>
+        <v>0.06556820492884173</v>
       </c>
       <c r="I29" t="n">
-        <v>0.06556842985748663</v>
+        <v>0.06556820492884173</v>
       </c>
       <c r="J29" t="n">
-        <v>0.06556842985748663</v>
+        <v>0.06556820492884173</v>
       </c>
       <c r="K29" t="n">
-        <v>0.06556842985748663</v>
+        <v>0.06556820492884173</v>
       </c>
       <c r="L29" t="n">
-        <v>0.06556842985748663</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>0.002162738821413131</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.007085409600656794</v>
+      </c>
       <c r="N29" t="n">
-        <v>0.002162738821413131</v>
+        <v>0.007085409600656794</v>
       </c>
       <c r="O29" t="n">
         <v>0.007085409600656794</v>
@@ -2179,16 +2090,9 @@
         <v>0.007085409600656794</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.007085409600656794</v>
+        <v>32</v>
       </c>
       <c r="R29" t="n">
-        <v>0.007085409600656794</v>
-      </c>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="n">
-        <v>32</v>
-      </c>
-      <c r="U29" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2199,37 +2103,41 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.03390519663200985</v>
+        <v>-0.0339049519749999</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.03390519663200985</v>
+        <v>-0.0339049519749999</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.03390519663200985</v>
+        <v>-0.0339049519749999</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.03390519663200985</v>
+        <v>-0.0339049519749999</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.03390519663200985</v>
-      </c>
-      <c r="G30" t="inlineStr"/>
+        <v>-0.0339049519749999</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-0.03390495197499985</v>
+      </c>
       <c r="H30" t="n">
-        <v>-0.03390519663200986</v>
+        <v>-0.03390495197499985</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.03390519663200986</v>
+        <v>-0.03390495197499985</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.03390519663200986</v>
+        <v>-0.03390495197499985</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.03390519663200986</v>
+        <v>-0.03390495197499985</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.03390519663200986</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>-0.01476053931945923</v>
+      </c>
+      <c r="M30" t="n">
+        <v>-0.01476053931945923</v>
+      </c>
       <c r="N30" t="n">
         <v>-0.01476053931945923</v>
       </c>
@@ -2240,16 +2148,9 @@
         <v>-0.01476053931945923</v>
       </c>
       <c r="Q30" t="n">
-        <v>-0.01476053931945923</v>
+        <v>1</v>
       </c>
       <c r="R30" t="n">
-        <v>-0.01476053931945923</v>
-      </c>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" t="n">
-        <v>1</v>
-      </c>
-      <c r="U30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2260,37 +2161,41 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.02833567271944142</v>
+        <v>0.02833573924497977</v>
       </c>
       <c r="C31" t="n">
-        <v>0.02833567271944142</v>
+        <v>0.02833573924497977</v>
       </c>
       <c r="D31" t="n">
-        <v>0.02833567271944142</v>
+        <v>0.02833573924497977</v>
       </c>
       <c r="E31" t="n">
-        <v>0.02833567271944142</v>
+        <v>0.02833573924497977</v>
       </c>
       <c r="F31" t="n">
-        <v>0.02833567271944142</v>
-      </c>
-      <c r="G31" t="inlineStr"/>
+        <v>0.02833573924497977</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-0.02833573924497966</v>
+      </c>
       <c r="H31" t="n">
-        <v>-0.02833567271944145</v>
+        <v>-0.02833573924497966</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.02833567271944145</v>
+        <v>-0.02833573924497966</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.02833567271944145</v>
+        <v>-0.02833573924497966</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.02833567271944145</v>
+        <v>-0.02833573924497966</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.02833567271944145</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>0.007025118077311674</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.007025118077311674</v>
+      </c>
       <c r="N31" t="n">
         <v>0.007025118077311674</v>
       </c>
@@ -2301,16 +2206,9 @@
         <v>0.007025118077311674</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.007025118077311674</v>
+        <v>3</v>
       </c>
       <c r="R31" t="n">
-        <v>0.007025118077311674</v>
-      </c>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="n">
-        <v>3</v>
-      </c>
-      <c r="U31" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2321,37 +2219,41 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-0.01999345760339495</v>
+        <v>-0.01999339679019644</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.01999345760339495</v>
+        <v>-0.01999339679019644</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.01999345760339495</v>
+        <v>-0.01999339679019644</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.01999345760339495</v>
+        <v>-0.01999339679019644</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.01999345760339495</v>
-      </c>
-      <c r="G32" t="inlineStr"/>
+        <v>-0.01999339679019644</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-0.01999339679019641</v>
+      </c>
       <c r="H32" t="n">
-        <v>-0.01999345760339495</v>
+        <v>-0.01999339679019641</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.01999345760339495</v>
+        <v>-0.01999339679019641</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.01999345760339495</v>
+        <v>-0.01999339679019641</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.01999345760339495</v>
+        <v>-0.01999339679019641</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.01999345760339495</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>-0.005467336018314979</v>
+      </c>
+      <c r="M32" t="n">
+        <v>-0.005467336018314979</v>
+      </c>
       <c r="N32" t="n">
         <v>-0.005467336018314979</v>
       </c>
@@ -2362,16 +2264,9 @@
         <v>-0.005467336018314979</v>
       </c>
       <c r="Q32" t="n">
-        <v>-0.005467336018314979</v>
+        <v>1</v>
       </c>
       <c r="R32" t="n">
-        <v>-0.005467336018314979</v>
-      </c>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="n">
-        <v>1</v>
-      </c>
-      <c r="U32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2396,23 +2291,27 @@
       <c r="F33" t="n">
         <v>0.01293642107713304</v>
       </c>
-      <c r="G33" t="inlineStr"/>
+      <c r="G33" t="n">
+        <v>-0.01329580724427629</v>
+      </c>
       <c r="H33" t="n">
-        <v>-0.01329580278657327</v>
+        <v>-0.01329580724427629</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.01329580278657327</v>
+        <v>-0.01329580724427629</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.01329580278657327</v>
+        <v>-0.01329580724427629</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.01329580278657327</v>
+        <v>-0.01329580724427629</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.01329580278657327</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>0.01620911844172447</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.01620911844172447</v>
+      </c>
       <c r="N33" t="n">
         <v>0.01620911844172447</v>
       </c>
@@ -2423,16 +2322,9 @@
         <v>0.01620911844172447</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.01620911844172447</v>
+        <v>6</v>
       </c>
       <c r="R33" t="n">
-        <v>0.01620911844172447</v>
-      </c>
-      <c r="S33" t="inlineStr"/>
-      <c r="T33" t="n">
-        <v>6</v>
-      </c>
-      <c r="U33" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2443,37 +2335,41 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.0687806853216088</v>
+        <v>0.06878023921580383</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0687806853216088</v>
+        <v>0.06878023921580383</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0687806853216088</v>
+        <v>0.06878023921580383</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0687806853216088</v>
+        <v>0.06878023921580383</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0687806853216088</v>
-      </c>
-      <c r="G34" t="inlineStr"/>
+        <v>0.06878023921580383</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.06878023921580402</v>
+      </c>
       <c r="H34" t="n">
-        <v>0.06878068532160921</v>
+        <v>0.06878023921580402</v>
       </c>
       <c r="I34" t="n">
-        <v>0.06878068532160921</v>
+        <v>0.06878023921580402</v>
       </c>
       <c r="J34" t="n">
-        <v>0.06878068532160921</v>
+        <v>0.06878023921580402</v>
       </c>
       <c r="K34" t="n">
-        <v>0.06878068532160921</v>
+        <v>0.06878023921580402</v>
       </c>
       <c r="L34" t="n">
-        <v>0.06878068532160921</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>0.04012562594941583</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.04012562594941583</v>
+      </c>
       <c r="N34" t="n">
         <v>0.04012562594941583</v>
       </c>
@@ -2484,16 +2380,9 @@
         <v>0.04012562594941583</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.04012562594941583</v>
+        <v>29</v>
       </c>
       <c r="R34" t="n">
-        <v>0.04012562594941583</v>
-      </c>
-      <c r="S34" t="inlineStr"/>
-      <c r="T34" t="n">
-        <v>29</v>
-      </c>
-      <c r="U34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2504,39 +2393,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.05483294519153574</v>
+        <v>-0.05483311446917565</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.04856014659507771</v>
+        <v>-0.04856008234024527</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.04856014659507771</v>
+        <v>-0.04856008234024527</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.04856014659507771</v>
+        <v>-0.04856008234024527</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.04856014659507771</v>
-      </c>
-      <c r="G35" t="inlineStr"/>
+        <v>-0.04856008234024527</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.05295961775297235</v>
+      </c>
       <c r="H35" t="n">
-        <v>0.05295945087081922</v>
+        <v>0.04548428940347615</v>
       </c>
       <c r="I35" t="n">
-        <v>0.04548438748808768</v>
+        <v>0.04548428940347615</v>
       </c>
       <c r="J35" t="n">
-        <v>0.04548438748808768</v>
+        <v>0.04548428940347615</v>
       </c>
       <c r="K35" t="n">
-        <v>0.04548438748808768</v>
+        <v>0.04548428940347615</v>
       </c>
       <c r="L35" t="n">
-        <v>0.04548438748808768</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>0.003687387091093904</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.008879799239929154</v>
+      </c>
       <c r="N35" t="n">
-        <v>0.003687387091093904</v>
+        <v>0.008879799239929154</v>
       </c>
       <c r="O35" t="n">
         <v>0.008879799239929154</v>
@@ -2545,16 +2438,9 @@
         <v>0.008879799239929154</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.008879799239929154</v>
+        <v>32</v>
       </c>
       <c r="R35" t="n">
-        <v>0.008879799239929154</v>
-      </c>
-      <c r="S35" t="inlineStr"/>
-      <c r="T35" t="n">
-        <v>32</v>
-      </c>
-      <c r="U35" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2565,39 +2451,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.1482922620374998</v>
+        <v>0.1482923144610329</v>
       </c>
       <c r="C36" t="n">
-        <v>0.15583805589171</v>
+        <v>0.1558381078507913</v>
       </c>
       <c r="D36" t="n">
-        <v>0.15583805589171</v>
+        <v>0.1558381078507913</v>
       </c>
       <c r="E36" t="n">
-        <v>0.15583805589171</v>
+        <v>0.1558381078507913</v>
       </c>
       <c r="F36" t="n">
-        <v>0.15583805589171</v>
-      </c>
-      <c r="G36" t="inlineStr"/>
+        <v>0.1558381078507913</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.1482923144610336</v>
+      </c>
       <c r="H36" t="n">
-        <v>0.1482922620374998</v>
+        <v>0.1558381078507921</v>
       </c>
       <c r="I36" t="n">
-        <v>0.15583805589171</v>
+        <v>0.1558381078507921</v>
       </c>
       <c r="J36" t="n">
-        <v>0.15583805589171</v>
+        <v>0.1558381078507921</v>
       </c>
       <c r="K36" t="n">
-        <v>0.15583805589171</v>
+        <v>0.1558381078507921</v>
       </c>
       <c r="L36" t="n">
-        <v>0.15583805589171</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0.03113906066292487</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.03800766019713923</v>
+      </c>
       <c r="N36" t="n">
-        <v>0.03113906066292487</v>
+        <v>0.03800766019713923</v>
       </c>
       <c r="O36" t="n">
         <v>0.03800766019713923</v>
@@ -2606,16 +2496,9 @@
         <v>0.03800766019713923</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.03800766019713923</v>
+        <v>56</v>
       </c>
       <c r="R36" t="n">
-        <v>0.03800766019713923</v>
-      </c>
-      <c r="S36" t="inlineStr"/>
-      <c r="T36" t="n">
-        <v>56</v>
-      </c>
-      <c r="U36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2640,7 +2523,9 @@
       <c r="F37" t="n">
         <v>0</v>
       </c>
-      <c r="G37" t="inlineStr"/>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
@@ -2656,7 +2541,9 @@
       <c r="L37" t="n">
         <v>0</v>
       </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
@@ -2670,13 +2557,6 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="inlineStr"/>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2687,37 +2567,41 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.00402213821322395</v>
+        <v>-0.004021717188442952</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.00402213821322395</v>
+        <v>-0.004021717188442952</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.00402213821322395</v>
+        <v>-0.004021717188442952</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.00402213821322395</v>
+        <v>-0.004021717188442952</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.00402213821322395</v>
-      </c>
-      <c r="G38" t="inlineStr"/>
+        <v>-0.004021717188442952</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-0.004021717188442946</v>
+      </c>
       <c r="H38" t="n">
-        <v>-0.0040221382132239</v>
+        <v>-0.004021717188442946</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.0040221382132239</v>
+        <v>-0.004021717188442946</v>
       </c>
       <c r="J38" t="n">
-        <v>-0.0040221382132239</v>
+        <v>-0.004021717188442946</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.0040221382132239</v>
+        <v>-0.004021717188442946</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.0040221382132239</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0.007690773777572331</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.007690773777572331</v>
+      </c>
       <c r="N38" t="n">
         <v>0.007690773777572331</v>
       </c>
@@ -2728,16 +2612,9 @@
         <v>0.007690773777572331</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.007690773777572331</v>
+        <v>2</v>
       </c>
       <c r="R38" t="n">
-        <v>0.007690773777572331</v>
-      </c>
-      <c r="S38" t="inlineStr"/>
-      <c r="T38" t="n">
-        <v>2</v>
-      </c>
-      <c r="U38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2748,37 +2625,41 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.019166098703009</v>
+        <v>0.01916620666372392</v>
       </c>
       <c r="C39" t="n">
-        <v>0.019166098703009</v>
+        <v>0.01916620666372392</v>
       </c>
       <c r="D39" t="n">
-        <v>0.019166098703009</v>
+        <v>0.01916620666372392</v>
       </c>
       <c r="E39" t="n">
-        <v>0.019166098703009</v>
+        <v>0.01916620666372392</v>
       </c>
       <c r="F39" t="n">
-        <v>0.019166098703009</v>
-      </c>
-      <c r="G39" t="inlineStr"/>
+        <v>0.01916620666372392</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-0.01924334391789101</v>
+      </c>
       <c r="H39" t="n">
-        <v>-0.01924323477530964</v>
+        <v>-0.01924334391789101</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.01924323477530964</v>
+        <v>-0.01924334391789101</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.01924323477530964</v>
+        <v>-0.01924334391789101</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.01924323477530964</v>
+        <v>-0.01924334391789101</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.01924323477530964</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0.00642548080392154</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.00642548080392154</v>
+      </c>
       <c r="N39" t="n">
         <v>0.00642548080392154</v>
       </c>
@@ -2789,16 +2670,9 @@
         <v>0.00642548080392154</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.00642548080392154</v>
+        <v>3</v>
       </c>
       <c r="R39" t="n">
-        <v>0.00642548080392154</v>
-      </c>
-      <c r="S39" t="inlineStr"/>
-      <c r="T39" t="n">
-        <v>3</v>
-      </c>
-      <c r="U39" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2809,37 +2683,41 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-0.01837677908476055</v>
+        <v>-0.01837698476126817</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.01837677908476055</v>
+        <v>-0.01837698476126817</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.01837677908476055</v>
+        <v>-0.01837698476126817</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.01837677908476055</v>
+        <v>-0.01837698476126817</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.01837677908476055</v>
-      </c>
-      <c r="G40" t="inlineStr"/>
+        <v>-0.01837698476126817</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-0.01837698476126834</v>
+      </c>
       <c r="H40" t="n">
-        <v>-0.0183767790847607</v>
+        <v>-0.01837698476126834</v>
       </c>
       <c r="I40" t="n">
-        <v>-0.0183767790847607</v>
+        <v>-0.01837698476126834</v>
       </c>
       <c r="J40" t="n">
-        <v>-0.0183767790847607</v>
+        <v>-0.01837698476126834</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.0183767790847607</v>
+        <v>-0.01837698476126834</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.0183767790847607</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>-0.01515890341735676</v>
+      </c>
+      <c r="M40" t="n">
+        <v>-0.01515890341735676</v>
+      </c>
       <c r="N40" t="n">
         <v>-0.01515890341735676</v>
       </c>
@@ -2850,16 +2728,9 @@
         <v>-0.01515890341735676</v>
       </c>
       <c r="Q40" t="n">
-        <v>-0.01515890341735676</v>
+        <v>5</v>
       </c>
       <c r="R40" t="n">
-        <v>-0.01515890341735676</v>
-      </c>
-      <c r="S40" t="inlineStr"/>
-      <c r="T40" t="n">
-        <v>5</v>
-      </c>
-      <c r="U40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2870,37 +2741,41 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.01015699543492192</v>
+        <v>0.01015667896503799</v>
       </c>
       <c r="C41" t="n">
-        <v>0.01015699543492192</v>
+        <v>0.01015667896503799</v>
       </c>
       <c r="D41" t="n">
-        <v>0.01015699543492192</v>
+        <v>0.01015667896503799</v>
       </c>
       <c r="E41" t="n">
-        <v>0.01015699543492192</v>
+        <v>0.01015667896503799</v>
       </c>
       <c r="F41" t="n">
-        <v>0.01015699543492192</v>
-      </c>
-      <c r="G41" t="inlineStr"/>
+        <v>0.01015667896503799</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-0.01015667896503807</v>
+      </c>
       <c r="H41" t="n">
-        <v>-0.01015699543492183</v>
+        <v>-0.01015667896503807</v>
       </c>
       <c r="I41" t="n">
-        <v>-0.01015699543492183</v>
+        <v>-0.01015667896503807</v>
       </c>
       <c r="J41" t="n">
-        <v>-0.01015699543492183</v>
+        <v>-0.01015667896503807</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.01015699543492183</v>
+        <v>-0.01015667896503807</v>
       </c>
       <c r="L41" t="n">
-        <v>-0.01015699543492183</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0.008141567655737876</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.008141567655737876</v>
+      </c>
       <c r="N41" t="n">
         <v>0.008141567655737876</v>
       </c>
@@ -2911,16 +2786,9 @@
         <v>0.008141567655737876</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.008141567655737876</v>
+        <v>1</v>
       </c>
       <c r="R41" t="n">
-        <v>0.008141567655737876</v>
-      </c>
-      <c r="S41" t="inlineStr"/>
-      <c r="T41" t="n">
-        <v>1</v>
-      </c>
-      <c r="U41" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -2945,23 +2813,27 @@
       <c r="F42" t="n">
         <v>-0.01449492137648673</v>
       </c>
-      <c r="G42" t="inlineStr"/>
+      <c r="G42" t="n">
+        <v>-0.01449492137648672</v>
+      </c>
       <c r="H42" t="n">
-        <v>-0.01449492137648673</v>
+        <v>-0.01449492137648672</v>
       </c>
       <c r="I42" t="n">
-        <v>-0.01449492137648673</v>
+        <v>-0.01449492137648672</v>
       </c>
       <c r="J42" t="n">
-        <v>-0.01449492137648673</v>
+        <v>-0.01449492137648672</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.01449492137648673</v>
+        <v>-0.01449492137648672</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.01449492137648673</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>-0.002127407476523251</v>
+      </c>
+      <c r="M42" t="n">
+        <v>-0.002127407476523251</v>
+      </c>
       <c r="N42" t="n">
         <v>-0.002127407476523251</v>
       </c>
@@ -2972,16 +2844,9 @@
         <v>-0.002127407476523251</v>
       </c>
       <c r="Q42" t="n">
-        <v>-0.002127407476523251</v>
+        <v>3</v>
       </c>
       <c r="R42" t="n">
-        <v>-0.002127407476523251</v>
-      </c>
-      <c r="S42" t="inlineStr"/>
-      <c r="T42" t="n">
-        <v>3</v>
-      </c>
-      <c r="U42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3006,7 +2871,9 @@
       <c r="F43" t="n">
         <v>0</v>
       </c>
-      <c r="G43" t="inlineStr"/>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
@@ -3022,7 +2889,9 @@
       <c r="L43" t="n">
         <v>0</v>
       </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
@@ -3036,13 +2905,6 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="inlineStr"/>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3053,37 +2915,41 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-0.02710273714743404</v>
+        <v>-0.02710283273604424</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.02710273714743404</v>
+        <v>-0.02710283273604424</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.02710273714743404</v>
+        <v>-0.02710283273604424</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.02710273714743404</v>
+        <v>-0.02710283273604424</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.02710273714743404</v>
-      </c>
-      <c r="G44" t="inlineStr"/>
+        <v>-0.02710283273604424</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-0.02710283273604438</v>
+      </c>
       <c r="H44" t="n">
-        <v>-0.02710273714743392</v>
+        <v>-0.02710283273604438</v>
       </c>
       <c r="I44" t="n">
-        <v>-0.02710273714743392</v>
+        <v>-0.02710283273604438</v>
       </c>
       <c r="J44" t="n">
-        <v>-0.02710273714743392</v>
+        <v>-0.02710283273604438</v>
       </c>
       <c r="K44" t="n">
-        <v>-0.02710273714743392</v>
+        <v>-0.02710283273604438</v>
       </c>
       <c r="L44" t="n">
-        <v>-0.02710273714743392</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>-0.01550302847601963</v>
+      </c>
+      <c r="M44" t="n">
+        <v>-0.01550302847601963</v>
+      </c>
       <c r="N44" t="n">
         <v>-0.01550302847601963</v>
       </c>
@@ -3094,16 +2960,9 @@
         <v>-0.01550302847601963</v>
       </c>
       <c r="Q44" t="n">
-        <v>-0.01550302847601963</v>
+        <v>11</v>
       </c>
       <c r="R44" t="n">
-        <v>-0.01550302847601963</v>
-      </c>
-      <c r="S44" t="inlineStr"/>
-      <c r="T44" t="n">
-        <v>11</v>
-      </c>
-      <c r="U44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3114,39 +2973,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-0.05777329642008092</v>
+        <v>-0.05777339392133832</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.0387161779427381</v>
+        <v>-0.03871627741601879</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.0387161779427381</v>
+        <v>-0.03871627741601879</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.0387161779427381</v>
+        <v>-0.03871627741601879</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.0387161779427381</v>
-      </c>
-      <c r="G45" t="inlineStr"/>
+        <v>-0.03871627741601879</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.05794968682858052</v>
+      </c>
       <c r="H45" t="n">
-        <v>0.05794958431551253</v>
+        <v>0.0365519993629652</v>
       </c>
       <c r="I45" t="n">
-        <v>0.03655189892328752</v>
+        <v>0.0365519993629652</v>
       </c>
       <c r="J45" t="n">
-        <v>0.03655189892328752</v>
+        <v>0.0365519993629652</v>
       </c>
       <c r="K45" t="n">
-        <v>0.03655189892328752</v>
+        <v>0.0365519993629652</v>
       </c>
       <c r="L45" t="n">
-        <v>0.03655189892328752</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>-0.02348098368884738</v>
+      </c>
+      <c r="M45" t="n">
+        <v>-0.006818540161729308</v>
+      </c>
       <c r="N45" t="n">
-        <v>-0.02348098368884738</v>
+        <v>-0.006818540161729308</v>
       </c>
       <c r="O45" t="n">
         <v>-0.006818540161729308</v>
@@ -3155,16 +3018,9 @@
         <v>-0.006818540161729308</v>
       </c>
       <c r="Q45" t="n">
-        <v>-0.006818540161729308</v>
+        <v>31</v>
       </c>
       <c r="R45" t="n">
-        <v>-0.006818540161729308</v>
-      </c>
-      <c r="S45" t="inlineStr"/>
-      <c r="T45" t="n">
-        <v>31</v>
-      </c>
-      <c r="U45" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3175,37 +3031,41 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.02275512760720923</v>
+        <v>0.02275545300368625</v>
       </c>
       <c r="C46" t="n">
-        <v>0.02275512760720923</v>
+        <v>0.02275545300368625</v>
       </c>
       <c r="D46" t="n">
-        <v>0.02275512760720923</v>
+        <v>0.02275545300368625</v>
       </c>
       <c r="E46" t="n">
-        <v>0.02275512760720923</v>
+        <v>0.02275545300368625</v>
       </c>
       <c r="F46" t="n">
-        <v>0.02275512760720923</v>
-      </c>
-      <c r="G46" t="inlineStr"/>
+        <v>0.02275545300368625</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.02275545300368611</v>
+      </c>
       <c r="H46" t="n">
-        <v>0.02275512760720942</v>
+        <v>0.02275545300368611</v>
       </c>
       <c r="I46" t="n">
-        <v>0.02275512760720942</v>
+        <v>0.02275545300368611</v>
       </c>
       <c r="J46" t="n">
-        <v>0.02275512760720942</v>
+        <v>0.02275545300368611</v>
       </c>
       <c r="K46" t="n">
-        <v>0.02275512760720942</v>
+        <v>0.02275545300368611</v>
       </c>
       <c r="L46" t="n">
-        <v>0.02275512760720942</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0.03921389622299688</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.03921389622299688</v>
+      </c>
       <c r="N46" t="n">
         <v>0.03921389622299688</v>
       </c>
@@ -3216,16 +3076,9 @@
         <v>0.03921389622299688</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.03921389622299688</v>
+        <v>26</v>
       </c>
       <c r="R46" t="n">
-        <v>0.03921389622299688</v>
-      </c>
-      <c r="S46" t="inlineStr"/>
-      <c r="T46" t="n">
-        <v>26</v>
-      </c>
-      <c r="U46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3236,37 +3089,41 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.01433715503500164</v>
+        <v>0.01433705053221701</v>
       </c>
       <c r="C47" t="n">
-        <v>0.01433715503500164</v>
+        <v>0.01433705053221701</v>
       </c>
       <c r="D47" t="n">
-        <v>0.01433715503500164</v>
+        <v>0.01433705053221701</v>
       </c>
       <c r="E47" t="n">
-        <v>0.01433715503500164</v>
+        <v>0.01433705053221701</v>
       </c>
       <c r="F47" t="n">
-        <v>0.01433715503500164</v>
-      </c>
-      <c r="G47" t="inlineStr"/>
+        <v>0.01433705053221701</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-0.01433705053221695</v>
+      </c>
       <c r="H47" t="n">
-        <v>-0.01433715503500151</v>
+        <v>-0.01433705053221695</v>
       </c>
       <c r="I47" t="n">
-        <v>-0.01433715503500151</v>
+        <v>-0.01433705053221695</v>
       </c>
       <c r="J47" t="n">
-        <v>-0.01433715503500151</v>
+        <v>-0.01433705053221695</v>
       </c>
       <c r="K47" t="n">
-        <v>-0.01433715503500151</v>
+        <v>-0.01433705053221695</v>
       </c>
       <c r="L47" t="n">
-        <v>-0.01433715503500151</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0.007222656026415437</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.007222656026415437</v>
+      </c>
       <c r="N47" t="n">
         <v>0.007222656026415437</v>
       </c>
@@ -3277,16 +3134,9 @@
         <v>0.007222656026415437</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.007222656026415437</v>
+        <v>1</v>
       </c>
       <c r="R47" t="n">
-        <v>0.007222656026415437</v>
-      </c>
-      <c r="S47" t="inlineStr"/>
-      <c r="T47" t="n">
-        <v>1</v>
-      </c>
-      <c r="U47" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3297,39 +3147,43 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.195333061913076</v>
+        <v>0.1953335142344227</v>
       </c>
       <c r="C48" t="n">
-        <v>0.1661332008648636</v>
+        <v>0.1661332350945641</v>
       </c>
       <c r="D48" t="n">
-        <v>0.1661332008648636</v>
+        <v>0.1661332350945641</v>
       </c>
       <c r="E48" t="n">
-        <v>0.1661332008648636</v>
+        <v>0.1661332350945641</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1661332008648636</v>
-      </c>
-      <c r="G48" t="inlineStr"/>
+        <v>0.1661332350945641</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.1953335142344226</v>
+      </c>
       <c r="H48" t="n">
-        <v>0.1953330619130765</v>
+        <v>0.1661332350945638</v>
       </c>
       <c r="I48" t="n">
-        <v>0.1661332008648635</v>
+        <v>0.1661332350945638</v>
       </c>
       <c r="J48" t="n">
-        <v>0.1661332008648635</v>
+        <v>0.1661332350945638</v>
       </c>
       <c r="K48" t="n">
-        <v>0.1661332008648635</v>
+        <v>0.1661332350945638</v>
       </c>
       <c r="L48" t="n">
-        <v>0.1661332008648635</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0.005776521332744687</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.003796932215573658</v>
+      </c>
       <c r="N48" t="n">
-        <v>0.005776521332744687</v>
+        <v>0.003796932215573658</v>
       </c>
       <c r="O48" t="n">
         <v>0.003796932215573658</v>
@@ -3338,16 +3192,9 @@
         <v>0.003796932215573658</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.003796932215573658</v>
+        <v>51</v>
       </c>
       <c r="R48" t="n">
-        <v>0.003796932215573658</v>
-      </c>
-      <c r="S48" t="inlineStr"/>
-      <c r="T48" t="n">
-        <v>51</v>
-      </c>
-      <c r="U48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3358,37 +3205,41 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-0.009709225453210239</v>
+        <v>-0.009709226325506597</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.009709225453210239</v>
+        <v>-0.009709226325506597</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.009709225453210239</v>
+        <v>-0.009709226325506597</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.009709225453210239</v>
+        <v>-0.009709226325506597</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.009709225453210239</v>
-      </c>
-      <c r="G49" t="inlineStr"/>
+        <v>-0.009709226325506597</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.002971167616122197</v>
+      </c>
       <c r="H49" t="n">
-        <v>0.002971187590117428</v>
+        <v>0.002971167616122197</v>
       </c>
       <c r="I49" t="n">
-        <v>0.002971187590117428</v>
+        <v>0.002971167616122197</v>
       </c>
       <c r="J49" t="n">
-        <v>0.002971187590117428</v>
+        <v>0.002971167616122197</v>
       </c>
       <c r="K49" t="n">
-        <v>0.002971187590117428</v>
+        <v>0.002971167616122197</v>
       </c>
       <c r="L49" t="n">
-        <v>0.002971187590117428</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>-0.0562599882921879</v>
+      </c>
+      <c r="M49" t="n">
+        <v>-0.0562599882921879</v>
+      </c>
       <c r="N49" t="n">
         <v>-0.0562599882921879</v>
       </c>
@@ -3399,16 +3250,9 @@
         <v>-0.0562599882921879</v>
       </c>
       <c r="Q49" t="n">
-        <v>-0.0562599882921879</v>
+        <v>22</v>
       </c>
       <c r="R49" t="n">
-        <v>-0.0562599882921879</v>
-      </c>
-      <c r="S49" t="inlineStr"/>
-      <c r="T49" t="n">
-        <v>22</v>
-      </c>
-      <c r="U49" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3419,37 +3263,41 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-0.03390064128606267</v>
+        <v>-0.03390054987580626</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.03390064128606267</v>
+        <v>-0.03390054987580626</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.03390064128606267</v>
+        <v>-0.03390054987580626</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.03390064128606267</v>
+        <v>-0.03390054987580626</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.03390064128606267</v>
-      </c>
-      <c r="G50" t="inlineStr"/>
+        <v>-0.03390054987580626</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-0.0339005498758063</v>
+      </c>
       <c r="H50" t="n">
-        <v>-0.0339006412860625</v>
+        <v>-0.0339005498758063</v>
       </c>
       <c r="I50" t="n">
-        <v>-0.0339006412860625</v>
+        <v>-0.0339005498758063</v>
       </c>
       <c r="J50" t="n">
-        <v>-0.0339006412860625</v>
+        <v>-0.0339005498758063</v>
       </c>
       <c r="K50" t="n">
-        <v>-0.0339006412860625</v>
+        <v>-0.0339005498758063</v>
       </c>
       <c r="L50" t="n">
-        <v>-0.0339006412860625</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>-0.02146132191215122</v>
+      </c>
+      <c r="M50" t="n">
+        <v>-0.02146132191215122</v>
+      </c>
       <c r="N50" t="n">
         <v>-0.02146132191215122</v>
       </c>
@@ -3460,16 +3308,9 @@
         <v>-0.02146132191215122</v>
       </c>
       <c r="Q50" t="n">
-        <v>-0.02146132191215122</v>
+        <v>11</v>
       </c>
       <c r="R50" t="n">
-        <v>-0.02146132191215122</v>
-      </c>
-      <c r="S50" t="inlineStr"/>
-      <c r="T50" t="n">
-        <v>11</v>
-      </c>
-      <c r="U50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3494,7 +3335,9 @@
       <c r="F51" t="n">
         <v>0</v>
       </c>
-      <c r="G51" t="inlineStr"/>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
@@ -3510,7 +3353,9 @@
       <c r="L51" t="n">
         <v>0</v>
       </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
       <c r="N51" t="n">
         <v>0</v>
       </c>
@@ -3524,13 +3369,6 @@
         <v>0</v>
       </c>
       <c r="R51" t="n">
-        <v>0</v>
-      </c>
-      <c r="S51" t="inlineStr"/>
-      <c r="T51" t="n">
-        <v>0</v>
-      </c>
-      <c r="U51" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3541,37 +3379,41 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-0.0226284896443995</v>
+        <v>-0.0226285769407343</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.0226284896443995</v>
+        <v>-0.0226285769407343</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.0226284896443995</v>
+        <v>-0.0226285769407343</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.0226284896443995</v>
+        <v>-0.0226285769407343</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.0226284896443995</v>
-      </c>
-      <c r="G52" t="inlineStr"/>
+        <v>-0.0226285769407343</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-0.02262857694073438</v>
+      </c>
       <c r="H52" t="n">
-        <v>-0.02262848964439947</v>
+        <v>-0.02262857694073438</v>
       </c>
       <c r="I52" t="n">
-        <v>-0.02262848964439947</v>
+        <v>-0.02262857694073438</v>
       </c>
       <c r="J52" t="n">
-        <v>-0.02262848964439947</v>
+        <v>-0.02262857694073438</v>
       </c>
       <c r="K52" t="n">
-        <v>-0.02262848964439947</v>
+        <v>-0.02262857694073438</v>
       </c>
       <c r="L52" t="n">
-        <v>-0.02262848964439947</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>-0.0203105883298563</v>
+      </c>
+      <c r="M52" t="n">
+        <v>-0.0203105883298563</v>
+      </c>
       <c r="N52" t="n">
         <v>-0.0203105883298563</v>
       </c>
@@ -3582,16 +3424,9 @@
         <v>-0.0203105883298563</v>
       </c>
       <c r="Q52" t="n">
-        <v>-0.0203105883298563</v>
+        <v>2</v>
       </c>
       <c r="R52" t="n">
-        <v>-0.0203105883298563</v>
-      </c>
-      <c r="S52" t="inlineStr"/>
-      <c r="T52" t="n">
-        <v>2</v>
-      </c>
-      <c r="U52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3602,37 +3437,41 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-0.0198447569779934</v>
+        <v>-0.0198445743117829</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.0198447569779934</v>
+        <v>-0.0198445743117829</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.0198447569779934</v>
+        <v>-0.0198445743117829</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.0198447569779934</v>
+        <v>-0.0198445743117829</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.0198447569779934</v>
-      </c>
-      <c r="G53" t="inlineStr"/>
+        <v>-0.0198445743117829</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.01162933473166023</v>
+      </c>
       <c r="H53" t="n">
-        <v>0.01162950610632011</v>
+        <v>0.01162933473166023</v>
       </c>
       <c r="I53" t="n">
-        <v>0.01162950610632011</v>
+        <v>0.01162933473166023</v>
       </c>
       <c r="J53" t="n">
-        <v>0.01162950610632011</v>
+        <v>0.01162933473166023</v>
       </c>
       <c r="K53" t="n">
-        <v>0.01162950610632011</v>
+        <v>0.01162933473166023</v>
       </c>
       <c r="L53" t="n">
-        <v>0.01162950610632011</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0.02627119157881122</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.02627119157881122</v>
+      </c>
       <c r="N53" t="n">
         <v>0.02627119157881122</v>
       </c>
@@ -3643,16 +3482,9 @@
         <v>0.02627119157881122</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.02627119157881122</v>
+        <v>28</v>
       </c>
       <c r="R53" t="n">
-        <v>0.02627119157881122</v>
-      </c>
-      <c r="S53" t="inlineStr"/>
-      <c r="T53" t="n">
-        <v>28</v>
-      </c>
-      <c r="U53" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3663,37 +3495,41 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.002237332707471198</v>
+        <v>0.002237519555082903</v>
       </c>
       <c r="C54" t="n">
-        <v>0.002237332707471198</v>
+        <v>0.002237519555082903</v>
       </c>
       <c r="D54" t="n">
-        <v>0.002237332707471198</v>
+        <v>0.002237519555082903</v>
       </c>
       <c r="E54" t="n">
-        <v>0.002237332707471198</v>
+        <v>0.002237519555082903</v>
       </c>
       <c r="F54" t="n">
-        <v>0.002237332707471198</v>
-      </c>
-      <c r="G54" t="inlineStr"/>
+        <v>0.002237519555082903</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.002237519555082634</v>
+      </c>
       <c r="H54" t="n">
-        <v>0.002237332707471543</v>
+        <v>0.002237519555082634</v>
       </c>
       <c r="I54" t="n">
-        <v>0.002237332707471543</v>
+        <v>0.002237519555082634</v>
       </c>
       <c r="J54" t="n">
-        <v>0.002237332707471543</v>
+        <v>0.002237519555082634</v>
       </c>
       <c r="K54" t="n">
-        <v>0.002237332707471543</v>
+        <v>0.002237519555082634</v>
       </c>
       <c r="L54" t="n">
-        <v>0.002237332707471543</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>-0.01090527365137864</v>
+      </c>
+      <c r="M54" t="n">
+        <v>-0.01090527365137864</v>
+      </c>
       <c r="N54" t="n">
         <v>-0.01090527365137864</v>
       </c>
@@ -3704,16 +3540,9 @@
         <v>-0.01090527365137864</v>
       </c>
       <c r="Q54" t="n">
-        <v>-0.01090527365137864</v>
+        <v>21</v>
       </c>
       <c r="R54" t="n">
-        <v>-0.01090527365137864</v>
-      </c>
-      <c r="S54" t="inlineStr"/>
-      <c r="T54" t="n">
-        <v>21</v>
-      </c>
-      <c r="U54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3724,37 +3553,41 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-0.009781547915252544</v>
+        <v>-0.009781822265506342</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.009781547915252544</v>
+        <v>-0.009781822265506342</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.009781547915252544</v>
+        <v>-0.009781822265506342</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.009781547915252544</v>
+        <v>-0.009781822265506342</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.009781547915252544</v>
-      </c>
-      <c r="G55" t="inlineStr"/>
+        <v>-0.009781822265506342</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.001060515023214379</v>
+      </c>
       <c r="H55" t="n">
-        <v>0.00106022804292336</v>
+        <v>0.001060515023214379</v>
       </c>
       <c r="I55" t="n">
-        <v>0.00106022804292336</v>
+        <v>0.001060515023214379</v>
       </c>
       <c r="J55" t="n">
-        <v>0.00106022804292336</v>
+        <v>0.001060515023214379</v>
       </c>
       <c r="K55" t="n">
-        <v>0.00106022804292336</v>
+        <v>0.001060515023214379</v>
       </c>
       <c r="L55" t="n">
-        <v>0.00106022804292336</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>-0.02212197276075958</v>
+      </c>
+      <c r="M55" t="n">
+        <v>-0.02212197276075958</v>
+      </c>
       <c r="N55" t="n">
         <v>-0.02212197276075958</v>
       </c>
@@ -3765,16 +3598,9 @@
         <v>-0.02212197276075958</v>
       </c>
       <c r="Q55" t="n">
-        <v>-0.02212197276075958</v>
+        <v>22</v>
       </c>
       <c r="R55" t="n">
-        <v>-0.02212197276075958</v>
-      </c>
-      <c r="S55" t="inlineStr"/>
-      <c r="T55" t="n">
-        <v>22</v>
-      </c>
-      <c r="U55" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3799,7 +3625,9 @@
       <c r="F56" t="n">
         <v>0</v>
       </c>
-      <c r="G56" t="inlineStr"/>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
@@ -3815,7 +3643,9 @@
       <c r="L56" t="n">
         <v>0</v>
       </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
       <c r="N56" t="n">
         <v>0</v>
       </c>
@@ -3829,13 +3659,6 @@
         <v>0</v>
       </c>
       <c r="R56" t="n">
-        <v>0</v>
-      </c>
-      <c r="S56" t="inlineStr"/>
-      <c r="T56" t="n">
-        <v>0</v>
-      </c>
-      <c r="U56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3846,37 +3669,41 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-0.0485757615900269</v>
+        <v>-0.04857586433098521</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.0485757615900269</v>
+        <v>-0.04857586433098521</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.0485757615900269</v>
+        <v>-0.04857586433098521</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.0485757615900269</v>
+        <v>-0.04857586433098521</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.0485757615900269</v>
-      </c>
-      <c r="G57" t="inlineStr"/>
+        <v>-0.04857586433098521</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.03588727904577551</v>
+      </c>
       <c r="H57" t="n">
-        <v>0.03588712951699131</v>
+        <v>0.03588727904577551</v>
       </c>
       <c r="I57" t="n">
-        <v>0.03588712951699131</v>
+        <v>0.03588727904577551</v>
       </c>
       <c r="J57" t="n">
-        <v>0.03588712951699131</v>
+        <v>0.03588727904577551</v>
       </c>
       <c r="K57" t="n">
-        <v>0.03588712951699131</v>
+        <v>0.03588727904577551</v>
       </c>
       <c r="L57" t="n">
-        <v>0.03588712951699131</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0.008464107240129788</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.008464107240129788</v>
+      </c>
       <c r="N57" t="n">
         <v>0.008464107240129788</v>
       </c>
@@ -3887,16 +3714,9 @@
         <v>0.008464107240129788</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.008464107240129788</v>
+        <v>21</v>
       </c>
       <c r="R57" t="n">
-        <v>0.008464107240129788</v>
-      </c>
-      <c r="S57" t="inlineStr"/>
-      <c r="T57" t="n">
-        <v>21</v>
-      </c>
-      <c r="U57" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3907,21 +3727,23 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-0.02324654614489574</v>
+        <v>-0.02324634147679875</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.02324654614489574</v>
+        <v>-0.02324634147679875</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.02324654614489574</v>
+        <v>-0.02324634147679875</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.02324654614489574</v>
+        <v>-0.02324634147679875</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.02324654614489574</v>
-      </c>
-      <c r="G58" t="inlineStr"/>
+        <v>-0.02324634147679875</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
@@ -3935,9 +3757,11 @@
         <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>0</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>-0.005713699608975589</v>
+      </c>
+      <c r="M58" t="n">
+        <v>-0.005713699608975589</v>
+      </c>
       <c r="N58" t="n">
         <v>-0.005713699608975589</v>
       </c>
@@ -3948,16 +3772,9 @@
         <v>-0.005713699608975589</v>
       </c>
       <c r="Q58" t="n">
-        <v>-0.005713699608975589</v>
+        <v>3</v>
       </c>
       <c r="R58" t="n">
-        <v>-0.005713699608975589</v>
-      </c>
-      <c r="S58" t="inlineStr"/>
-      <c r="T58" t="n">
-        <v>3</v>
-      </c>
-      <c r="U58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3982,7 +3799,9 @@
       <c r="F59" t="n">
         <v>0</v>
       </c>
-      <c r="G59" t="inlineStr"/>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
@@ -3998,7 +3817,9 @@
       <c r="L59" t="n">
         <v>0</v>
       </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
       <c r="N59" t="n">
         <v>0</v>
       </c>
@@ -4012,13 +3833,6 @@
         <v>0</v>
       </c>
       <c r="R59" t="n">
-        <v>0</v>
-      </c>
-      <c r="S59" t="inlineStr"/>
-      <c r="T59" t="n">
-        <v>0</v>
-      </c>
-      <c r="U59" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4029,21 +3843,23 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-0.04081772022140743</v>
+        <v>-0.04081762082326026</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.04081772022140743</v>
+        <v>-0.04081762082326026</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.04081772022140743</v>
+        <v>-0.04081762082326026</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.04081772022140743</v>
+        <v>-0.04081762082326026</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.04081772022140743</v>
-      </c>
-      <c r="G60" t="inlineStr"/>
+        <v>-0.04081762082326026</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
@@ -4057,9 +3873,11 @@
         <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>0</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>-0.03433575794973238</v>
+      </c>
+      <c r="M60" t="n">
+        <v>-0.03433575794973238</v>
+      </c>
       <c r="N60" t="n">
         <v>-0.03433575794973238</v>
       </c>
@@ -4070,16 +3888,9 @@
         <v>-0.03433575794973238</v>
       </c>
       <c r="Q60" t="n">
-        <v>-0.03433575794973238</v>
+        <v>2</v>
       </c>
       <c r="R60" t="n">
-        <v>-0.03433575794973238</v>
-      </c>
-      <c r="S60" t="inlineStr"/>
-      <c r="T60" t="n">
-        <v>2</v>
-      </c>
-      <c r="U60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4090,37 +3901,41 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.03303433804560515</v>
+        <v>0.03303445784925177</v>
       </c>
       <c r="C61" t="n">
-        <v>0.03303433804560515</v>
+        <v>0.03303445784925177</v>
       </c>
       <c r="D61" t="n">
-        <v>0.03303433804560515</v>
+        <v>0.03303445784925177</v>
       </c>
       <c r="E61" t="n">
-        <v>0.03303433804560515</v>
+        <v>0.03303445784925177</v>
       </c>
       <c r="F61" t="n">
-        <v>0.03303433804560515</v>
-      </c>
-      <c r="G61" t="inlineStr"/>
+        <v>0.03303445784925177</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-0.03755485318052759</v>
+      </c>
       <c r="H61" t="n">
-        <v>-0.03755474926798457</v>
+        <v>-0.03755485318052759</v>
       </c>
       <c r="I61" t="n">
-        <v>-0.03755474926798457</v>
+        <v>-0.03755485318052759</v>
       </c>
       <c r="J61" t="n">
-        <v>-0.03755474926798457</v>
+        <v>-0.03755485318052759</v>
       </c>
       <c r="K61" t="n">
-        <v>-0.03755474926798457</v>
+        <v>-0.03755485318052759</v>
       </c>
       <c r="L61" t="n">
-        <v>-0.03755474926798457</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0.00278909843288142</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.00278909843288142</v>
+      </c>
       <c r="N61" t="n">
         <v>0.00278909843288142</v>
       </c>
@@ -4131,16 +3946,9 @@
         <v>0.00278909843288142</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.00278909843288142</v>
+        <v>14</v>
       </c>
       <c r="R61" t="n">
-        <v>0.00278909843288142</v>
-      </c>
-      <c r="S61" t="inlineStr"/>
-      <c r="T61" t="n">
-        <v>14</v>
-      </c>
-      <c r="U61" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4151,21 +3959,23 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-0.02978975184235973</v>
+        <v>-0.02978975508304558</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.02978975184235973</v>
+        <v>-0.02978975508304558</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.02978975184235973</v>
+        <v>-0.02978975508304558</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.02978975184235973</v>
+        <v>-0.02978975508304558</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.02978975184235973</v>
-      </c>
-      <c r="G62" t="inlineStr"/>
+        <v>-0.02978975508304558</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
@@ -4179,9 +3989,11 @@
         <v>0</v>
       </c>
       <c r="L62" t="n">
-        <v>0</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>-0.02014303607589204</v>
+      </c>
+      <c r="M62" t="n">
+        <v>-0.02014303607589204</v>
+      </c>
       <c r="N62" t="n">
         <v>-0.02014303607589204</v>
       </c>
@@ -4192,16 +4004,9 @@
         <v>-0.02014303607589204</v>
       </c>
       <c r="Q62" t="n">
-        <v>-0.02014303607589204</v>
+        <v>1</v>
       </c>
       <c r="R62" t="n">
-        <v>-0.02014303607589204</v>
-      </c>
-      <c r="S62" t="inlineStr"/>
-      <c r="T62" t="n">
-        <v>1</v>
-      </c>
-      <c r="U62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4226,23 +4031,27 @@
       <c r="F63" t="n">
         <v>-0.002154904768682833</v>
       </c>
-      <c r="G63" t="inlineStr"/>
+      <c r="G63" t="n">
+        <v>0.001572079210580002</v>
+      </c>
       <c r="H63" t="n">
-        <v>0.001572094626613268</v>
+        <v>0.001572079210580002</v>
       </c>
       <c r="I63" t="n">
-        <v>0.001572094626613268</v>
+        <v>0.001572079210580002</v>
       </c>
       <c r="J63" t="n">
-        <v>0.001572094626613268</v>
+        <v>0.001572079210580002</v>
       </c>
       <c r="K63" t="n">
-        <v>0.001572094626613268</v>
+        <v>0.001572079210580002</v>
       </c>
       <c r="L63" t="n">
-        <v>0.001572094626613268</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0.001702091967179493</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.001702091967179493</v>
+      </c>
       <c r="N63" t="n">
         <v>0.001702091967179493</v>
       </c>
@@ -4253,16 +4062,9 @@
         <v>0.001702091967179493</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.001702091967179493</v>
+        <v>2</v>
       </c>
       <c r="R63" t="n">
-        <v>0.001702091967179493</v>
-      </c>
-      <c r="S63" t="inlineStr"/>
-      <c r="T63" t="n">
-        <v>2</v>
-      </c>
-      <c r="U63" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4273,21 +4075,23 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.1479935518805164</v>
+        <v>0.1479936768535107</v>
       </c>
       <c r="C64" t="n">
-        <v>0.1479935518805164</v>
+        <v>0.1479936768535107</v>
       </c>
       <c r="D64" t="n">
-        <v>0.1479935518805164</v>
+        <v>0.1479936768535107</v>
       </c>
       <c r="E64" t="n">
-        <v>0.1479935518805164</v>
+        <v>0.1479936768535107</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1479935518805164</v>
-      </c>
-      <c r="G64" t="inlineStr"/>
+        <v>0.1479936768535107</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
@@ -4301,9 +4105,11 @@
         <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>0</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0.07801350289705088</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.07801350289705088</v>
+      </c>
       <c r="N64" t="n">
         <v>0.07801350289705088</v>
       </c>
@@ -4314,16 +4120,9 @@
         <v>0.07801350289705088</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.07801350289705088</v>
+        <v>24</v>
       </c>
       <c r="R64" t="n">
-        <v>0.07801350289705088</v>
-      </c>
-      <c r="S64" t="inlineStr"/>
-      <c r="T64" t="n">
-        <v>24</v>
-      </c>
-      <c r="U64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4334,37 +4133,41 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.01447154100743848</v>
+        <v>0.01447134741529104</v>
       </c>
       <c r="C65" t="n">
-        <v>0.01447154100743848</v>
+        <v>0.01447134741529104</v>
       </c>
       <c r="D65" t="n">
-        <v>0.01447154100743848</v>
+        <v>0.01447134741529104</v>
       </c>
       <c r="E65" t="n">
-        <v>0.01447154100743848</v>
+        <v>0.01447134741529104</v>
       </c>
       <c r="F65" t="n">
-        <v>0.01447154100743848</v>
-      </c>
-      <c r="G65" t="inlineStr"/>
+        <v>0.01447134741529104</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.01447134741529098</v>
+      </c>
       <c r="H65" t="n">
-        <v>0.01447154100743813</v>
+        <v>0.01447134741529098</v>
       </c>
       <c r="I65" t="n">
-        <v>0.01447154100743813</v>
+        <v>0.01447134741529098</v>
       </c>
       <c r="J65" t="n">
-        <v>0.01447154100743813</v>
+        <v>0.01447134741529098</v>
       </c>
       <c r="K65" t="n">
-        <v>0.01447154100743813</v>
+        <v>0.01447134741529098</v>
       </c>
       <c r="L65" t="n">
-        <v>0.01447154100743813</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>-0.01480345950908564</v>
+      </c>
+      <c r="M65" t="n">
+        <v>-0.01480345950908564</v>
+      </c>
       <c r="N65" t="n">
         <v>-0.01480345950908564</v>
       </c>
@@ -4375,16 +4178,9 @@
         <v>-0.01480345950908564</v>
       </c>
       <c r="Q65" t="n">
-        <v>-0.01480345950908564</v>
+        <v>25</v>
       </c>
       <c r="R65" t="n">
-        <v>-0.01480345950908564</v>
-      </c>
-      <c r="S65" t="inlineStr"/>
-      <c r="T65" t="n">
-        <v>25</v>
-      </c>
-      <c r="U65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4395,39 +4191,43 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-0.07150840109114344</v>
+        <v>-0.07150831255048699</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.08743346517760642</v>
+        <v>-0.08743347351523319</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.08743346517760642</v>
+        <v>-0.08743347351523319</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.08743346517760642</v>
+        <v>-0.08743347351523319</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.08743346517760642</v>
-      </c>
-      <c r="G66" t="inlineStr"/>
+        <v>-0.08743347351523319</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.06798321380859945</v>
+      </c>
       <c r="H66" t="n">
-        <v>0.06798329163312156</v>
+        <v>0.07548400075704031</v>
       </c>
       <c r="I66" t="n">
-        <v>0.07548392774850819</v>
+        <v>0.07548400075704031</v>
       </c>
       <c r="J66" t="n">
-        <v>0.07548392774850819</v>
+        <v>0.07548400075704031</v>
       </c>
       <c r="K66" t="n">
-        <v>0.07548392774850819</v>
+        <v>0.07548400075704031</v>
       </c>
       <c r="L66" t="n">
-        <v>0.07548392774850819</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>-0.07730096934596994</v>
+      </c>
+      <c r="M66" t="n">
+        <v>-0.06893748093129366</v>
+      </c>
       <c r="N66" t="n">
-        <v>-0.07730096934596994</v>
+        <v>-0.06893748093129366</v>
       </c>
       <c r="O66" t="n">
         <v>-0.06893748093129366</v>
@@ -4436,16 +4236,9 @@
         <v>-0.06893748093129366</v>
       </c>
       <c r="Q66" t="n">
-        <v>-0.06893748093129366</v>
+        <v>53</v>
       </c>
       <c r="R66" t="n">
-        <v>-0.06893748093129366</v>
-      </c>
-      <c r="S66" t="inlineStr"/>
-      <c r="T66" t="n">
-        <v>53</v>
-      </c>
-      <c r="U66" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4456,21 +4249,23 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-0.02957516590568746</v>
+        <v>-0.02957496300735528</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.02957516590568746</v>
+        <v>-0.02957496300735528</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.02957516590568746</v>
+        <v>-0.02957496300735528</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.02957516590568746</v>
+        <v>-0.02957496300735528</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.02957516590568746</v>
-      </c>
-      <c r="G67" t="inlineStr"/>
+        <v>-0.02957496300735528</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
@@ -4484,9 +4279,11 @@
         <v>0</v>
       </c>
       <c r="L67" t="n">
-        <v>0</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>-0.009914873467466851</v>
+      </c>
+      <c r="M67" t="n">
+        <v>-0.009914873467466851</v>
+      </c>
       <c r="N67" t="n">
         <v>-0.009914873467466851</v>
       </c>
@@ -4497,16 +4294,9 @@
         <v>-0.009914873467466851</v>
       </c>
       <c r="Q67" t="n">
-        <v>-0.009914873467466851</v>
+        <v>9</v>
       </c>
       <c r="R67" t="n">
-        <v>-0.009914873467466851</v>
-      </c>
-      <c r="S67" t="inlineStr"/>
-      <c r="T67" t="n">
-        <v>9</v>
-      </c>
-      <c r="U67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4517,37 +4307,41 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.05928575900502463</v>
+        <v>0.05928598719226146</v>
       </c>
       <c r="C68" t="n">
-        <v>0.05928575900502463</v>
+        <v>0.05928598719226146</v>
       </c>
       <c r="D68" t="n">
-        <v>0.05928575900502463</v>
+        <v>0.05928598719226146</v>
       </c>
       <c r="E68" t="n">
-        <v>0.05928575900502463</v>
+        <v>0.05928598719226146</v>
       </c>
       <c r="F68" t="n">
-        <v>0.05928575900502463</v>
-      </c>
-      <c r="G68" t="inlineStr"/>
+        <v>0.05928598719226146</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-0.06450709415250841</v>
+      </c>
       <c r="H68" t="n">
-        <v>-0.06450688140383407</v>
+        <v>-0.06450709415250841</v>
       </c>
       <c r="I68" t="n">
-        <v>-0.06450688140383407</v>
+        <v>-0.06450709415250841</v>
       </c>
       <c r="J68" t="n">
-        <v>-0.06450688140383407</v>
+        <v>-0.06450709415250841</v>
       </c>
       <c r="K68" t="n">
-        <v>-0.06450688140383407</v>
+        <v>-0.06450709415250841</v>
       </c>
       <c r="L68" t="n">
-        <v>-0.06450688140383407</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0.06357183450004722</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.06357183450004722</v>
+      </c>
       <c r="N68" t="n">
         <v>0.06357183450004722</v>
       </c>
@@ -4558,16 +4352,9 @@
         <v>0.06357183450004722</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.06357183450004722</v>
+        <v>7</v>
       </c>
       <c r="R68" t="n">
-        <v>0.06357183450004722</v>
-      </c>
-      <c r="S68" t="inlineStr"/>
-      <c r="T68" t="n">
-        <v>7</v>
-      </c>
-      <c r="U68" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4578,21 +4365,23 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-0.03660645624646634</v>
+        <v>-0.03660665774883531</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.03660645624646634</v>
+        <v>-0.03660665774883531</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.03660645624646634</v>
+        <v>-0.03660665774883531</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.03660645624646634</v>
+        <v>-0.03660665774883531</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.03660645624646634</v>
-      </c>
-      <c r="G69" t="inlineStr"/>
+        <v>-0.03660665774883531</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
@@ -4606,9 +4395,11 @@
         <v>0</v>
       </c>
       <c r="L69" t="n">
-        <v>0</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>-0.007260330316506085</v>
+      </c>
+      <c r="M69" t="n">
+        <v>-0.007260330316506085</v>
+      </c>
       <c r="N69" t="n">
         <v>-0.007260330316506085</v>
       </c>
@@ -4619,16 +4410,9 @@
         <v>-0.007260330316506085</v>
       </c>
       <c r="Q69" t="n">
-        <v>-0.007260330316506085</v>
+        <v>17</v>
       </c>
       <c r="R69" t="n">
-        <v>-0.007260330316506085</v>
-      </c>
-      <c r="S69" t="inlineStr"/>
-      <c r="T69" t="n">
-        <v>17</v>
-      </c>
-      <c r="U69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4639,37 +4423,41 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.04859397553503174</v>
+        <v>0.04859375787323529</v>
       </c>
       <c r="C70" t="n">
-        <v>0.04859397553503174</v>
+        <v>0.04859375787323529</v>
       </c>
       <c r="D70" t="n">
-        <v>0.04859397553503174</v>
+        <v>0.04859375787323529</v>
       </c>
       <c r="E70" t="n">
-        <v>0.04859397553503174</v>
+        <v>0.04859375787323529</v>
       </c>
       <c r="F70" t="n">
-        <v>0.04859397553503174</v>
-      </c>
-      <c r="G70" t="inlineStr"/>
+        <v>0.04859375787323529</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-0.04859375787323547</v>
+      </c>
       <c r="H70" t="n">
-        <v>-0.04859397553503169</v>
+        <v>-0.04859375787323547</v>
       </c>
       <c r="I70" t="n">
-        <v>-0.04859397553503169</v>
+        <v>-0.04859375787323547</v>
       </c>
       <c r="J70" t="n">
-        <v>-0.04859397553503169</v>
+        <v>-0.04859375787323547</v>
       </c>
       <c r="K70" t="n">
-        <v>-0.04859397553503169</v>
+        <v>-0.04859375787323547</v>
       </c>
       <c r="L70" t="n">
-        <v>-0.04859397553503169</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0.03094787239738904</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.03094787239738904</v>
+      </c>
       <c r="N70" t="n">
         <v>0.03094787239738904</v>
       </c>
@@ -4680,16 +4468,9 @@
         <v>0.03094787239738904</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.03094787239738904</v>
+        <v>1</v>
       </c>
       <c r="R70" t="n">
-        <v>0.03094787239738904</v>
-      </c>
-      <c r="S70" t="inlineStr"/>
-      <c r="T70" t="n">
-        <v>1</v>
-      </c>
-      <c r="U70" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4700,21 +4481,23 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-0.036410039718028</v>
+        <v>-0.03641013953777465</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.036410039718028</v>
+        <v>-0.03641013953777465</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.036410039718028</v>
+        <v>-0.03641013953777465</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.036410039718028</v>
+        <v>-0.03641013953777465</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.036410039718028</v>
-      </c>
-      <c r="G71" t="inlineStr"/>
+        <v>-0.03641013953777465</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
@@ -4728,9 +4511,11 @@
         <v>0</v>
       </c>
       <c r="L71" t="n">
-        <v>0</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>-0.03319213366255369</v>
+      </c>
+      <c r="M71" t="n">
+        <v>-0.03319213366255369</v>
+      </c>
       <c r="N71" t="n">
         <v>-0.03319213366255369</v>
       </c>
@@ -4741,16 +4526,9 @@
         <v>-0.03319213366255369</v>
       </c>
       <c r="Q71" t="n">
-        <v>-0.03319213366255369</v>
+        <v>5</v>
       </c>
       <c r="R71" t="n">
-        <v>-0.03319213366255369</v>
-      </c>
-      <c r="S71" t="inlineStr"/>
-      <c r="T71" t="n">
-        <v>5</v>
-      </c>
-      <c r="U71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4764,36 +4542,40 @@
         <v>-0.08031789493259842</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.05285941817588019</v>
+        <v>-0.05285930916738549</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.05285941817588019</v>
+        <v>-0.05285930916738549</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.05285941817588019</v>
+        <v>-0.05285930916738549</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.05285941817588019</v>
-      </c>
-      <c r="G72" t="inlineStr"/>
+        <v>-0.05285930916738549</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.07712042210073557</v>
+      </c>
       <c r="H72" t="n">
-        <v>0.07712041307448145</v>
+        <v>0.04538916221576123</v>
       </c>
       <c r="I72" t="n">
-        <v>0.04538928316091431</v>
+        <v>0.04538916221576123</v>
       </c>
       <c r="J72" t="n">
-        <v>0.04538928316091431</v>
+        <v>0.04538916221576123</v>
       </c>
       <c r="K72" t="n">
-        <v>0.04538928316091431</v>
+        <v>0.04538916221576123</v>
       </c>
       <c r="L72" t="n">
-        <v>0.04538928316091431</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>-0.009873064150092817</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.009072422991738023</v>
+      </c>
       <c r="N72" t="n">
-        <v>-0.009873064150092817</v>
+        <v>0.009072422991738023</v>
       </c>
       <c r="O72" t="n">
         <v>0.009072422991738023</v>
@@ -4802,16 +4584,9 @@
         <v>0.009072422991738023</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.009072422991738023</v>
+        <v>35</v>
       </c>
       <c r="R72" t="n">
-        <v>0.009072422991738023</v>
-      </c>
-      <c r="S72" t="inlineStr"/>
-      <c r="T72" t="n">
-        <v>35</v>
-      </c>
-      <c r="U72" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4822,21 +4597,23 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.1304999989059684</v>
+        <v>0.1305001140671844</v>
       </c>
       <c r="C73" t="n">
-        <v>0.1304999989059684</v>
+        <v>0.1305001140671844</v>
       </c>
       <c r="D73" t="n">
-        <v>0.1304999989059684</v>
+        <v>0.1305001140671844</v>
       </c>
       <c r="E73" t="n">
-        <v>0.1304999989059684</v>
+        <v>0.1305001140671844</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1304999989059684</v>
-      </c>
-      <c r="G73" t="inlineStr"/>
+        <v>0.1305001140671844</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
@@ -4850,9 +4627,11 @@
         <v>0</v>
       </c>
       <c r="L73" t="n">
-        <v>0</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0.04935512358394671</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.04935512358394671</v>
+      </c>
       <c r="N73" t="n">
         <v>0.04935512358394671</v>
       </c>
@@ -4863,16 +4642,9 @@
         <v>0.04935512358394671</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.04935512358394671</v>
+        <v>21</v>
       </c>
       <c r="R73" t="n">
-        <v>0.04935512358394671</v>
-      </c>
-      <c r="S73" t="inlineStr"/>
-      <c r="T73" t="n">
-        <v>21</v>
-      </c>
-      <c r="U73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4897,23 +4669,27 @@
       <c r="F74" t="n">
         <v>-0.03749707021509817</v>
       </c>
-      <c r="G74" t="inlineStr"/>
+      <c r="G74" t="n">
+        <v>-0.03749707021509832</v>
+      </c>
       <c r="H74" t="n">
-        <v>-0.03749707021509797</v>
+        <v>-0.03749707021509832</v>
       </c>
       <c r="I74" t="n">
-        <v>-0.03749707021509797</v>
+        <v>-0.03749707021509832</v>
       </c>
       <c r="J74" t="n">
-        <v>-0.03749707021509797</v>
+        <v>-0.03749707021509832</v>
       </c>
       <c r="K74" t="n">
-        <v>-0.03749707021509797</v>
+        <v>-0.03749707021509832</v>
       </c>
       <c r="L74" t="n">
-        <v>-0.03749707021509797</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>-0.03363726966771335</v>
+      </c>
+      <c r="M74" t="n">
+        <v>-0.03363726966771335</v>
+      </c>
       <c r="N74" t="n">
         <v>-0.03363726966771335</v>
       </c>
@@ -4924,16 +4700,9 @@
         <v>-0.03363726966771335</v>
       </c>
       <c r="Q74" t="n">
-        <v>-0.03363726966771335</v>
+        <v>18</v>
       </c>
       <c r="R74" t="n">
-        <v>-0.03363726966771335</v>
-      </c>
-      <c r="S74" t="inlineStr"/>
-      <c r="T74" t="n">
-        <v>18</v>
-      </c>
-      <c r="U74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4944,37 +4713,41 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.01423671948270718</v>
+        <v>0.01423692698300459</v>
       </c>
       <c r="C75" t="n">
-        <v>0.01423671948270718</v>
+        <v>0.01423692698300459</v>
       </c>
       <c r="D75" t="n">
-        <v>0.01423671948270718</v>
+        <v>0.01423692698300459</v>
       </c>
       <c r="E75" t="n">
-        <v>0.01423671948270718</v>
+        <v>0.01423692698300459</v>
       </c>
       <c r="F75" t="n">
-        <v>0.01423671948270718</v>
-      </c>
-      <c r="G75" t="inlineStr"/>
+        <v>0.01423692698300459</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-0.0158762288059379</v>
+      </c>
       <c r="H75" t="n">
-        <v>-0.01587602619409461</v>
+        <v>-0.0158762288059379</v>
       </c>
       <c r="I75" t="n">
-        <v>-0.01587602619409461</v>
+        <v>-0.0158762288059379</v>
       </c>
       <c r="J75" t="n">
-        <v>-0.01587602619409461</v>
+        <v>-0.0158762288059379</v>
       </c>
       <c r="K75" t="n">
-        <v>-0.01587602619409461</v>
+        <v>-0.0158762288059379</v>
       </c>
       <c r="L75" t="n">
-        <v>-0.01587602619409461</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0.01367806544195781</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.01367806544195781</v>
+      </c>
       <c r="N75" t="n">
         <v>0.01367806544195781</v>
       </c>
@@ -4985,16 +4758,9 @@
         <v>0.01367806544195781</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.01367806544195781</v>
+        <v>9</v>
       </c>
       <c r="R75" t="n">
-        <v>0.01367806544195781</v>
-      </c>
-      <c r="S75" t="inlineStr"/>
-      <c r="T75" t="n">
-        <v>9</v>
-      </c>
-      <c r="U75" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -5019,23 +4785,27 @@
       <c r="F76" t="n">
         <v>-0.0346488060584702</v>
       </c>
-      <c r="G76" t="inlineStr"/>
+      <c r="G76" t="n">
+        <v>-0.03464880605847014</v>
+      </c>
       <c r="H76" t="n">
-        <v>-0.03464880605847024</v>
+        <v>-0.03464880605847014</v>
       </c>
       <c r="I76" t="n">
-        <v>-0.03464880605847024</v>
+        <v>-0.03464880605847014</v>
       </c>
       <c r="J76" t="n">
-        <v>-0.03464880605847024</v>
+        <v>-0.03464880605847014</v>
       </c>
       <c r="K76" t="n">
-        <v>-0.03464880605847024</v>
+        <v>-0.03464880605847014</v>
       </c>
       <c r="L76" t="n">
-        <v>-0.03464880605847024</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>-0.04614882783647748</v>
+      </c>
+      <c r="M76" t="n">
+        <v>-0.04614882783647748</v>
+      </c>
       <c r="N76" t="n">
         <v>-0.04614882783647748</v>
       </c>
@@ -5046,16 +4816,9 @@
         <v>-0.04614882783647748</v>
       </c>
       <c r="Q76" t="n">
-        <v>-0.04614882783647748</v>
+        <v>4</v>
       </c>
       <c r="R76" t="n">
-        <v>-0.04614882783647748</v>
-      </c>
-      <c r="S76" t="inlineStr"/>
-      <c r="T76" t="n">
-        <v>4</v>
-      </c>
-      <c r="U76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5080,7 +4843,9 @@
       <c r="F77" t="n">
         <v>0</v>
       </c>
-      <c r="G77" t="inlineStr"/>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
@@ -5096,7 +4861,9 @@
       <c r="L77" t="n">
         <v>0</v>
       </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
       <c r="N77" t="n">
         <v>0</v>
       </c>
@@ -5110,13 +4877,6 @@
         <v>0</v>
       </c>
       <c r="R77" t="n">
-        <v>0</v>
-      </c>
-      <c r="S77" t="inlineStr"/>
-      <c r="T77" t="n">
-        <v>0</v>
-      </c>
-      <c r="U77" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -5127,37 +4887,41 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.04921693319140842</v>
+        <v>0.04921703372378769</v>
       </c>
       <c r="C78" t="n">
-        <v>0.04921693319140842</v>
+        <v>0.04921703372378769</v>
       </c>
       <c r="D78" t="n">
-        <v>0.04921693319140842</v>
+        <v>0.04921703372378769</v>
       </c>
       <c r="E78" t="n">
-        <v>0.04921693319140842</v>
+        <v>0.04921703372378769</v>
       </c>
       <c r="F78" t="n">
-        <v>0.04921693319140842</v>
-      </c>
-      <c r="G78" t="inlineStr"/>
+        <v>0.04921703372378769</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.04921703372378691</v>
+      </c>
       <c r="H78" t="n">
-        <v>0.04921693319140805</v>
+        <v>0.04921703372378691</v>
       </c>
       <c r="I78" t="n">
-        <v>0.04921693319140805</v>
+        <v>0.04921703372378691</v>
       </c>
       <c r="J78" t="n">
-        <v>0.04921693319140805</v>
+        <v>0.04921703372378691</v>
       </c>
       <c r="K78" t="n">
-        <v>0.04921693319140805</v>
+        <v>0.04921703372378691</v>
       </c>
       <c r="L78" t="n">
-        <v>0.04921693319140805</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0.04405387465293983</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.04405387465293983</v>
+      </c>
       <c r="N78" t="n">
         <v>0.04405387465293983</v>
       </c>
@@ -5168,16 +4932,9 @@
         <v>0.04405387465293983</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.04405387465293983</v>
+        <v>29</v>
       </c>
       <c r="R78" t="n">
-        <v>0.04405387465293983</v>
-      </c>
-      <c r="S78" t="inlineStr"/>
-      <c r="T78" t="n">
-        <v>29</v>
-      </c>
-      <c r="U78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5202,7 +4959,9 @@
       <c r="F79" t="n">
         <v>0</v>
       </c>
-      <c r="G79" t="inlineStr"/>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
@@ -5218,7 +4977,9 @@
       <c r="L79" t="n">
         <v>0</v>
       </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
       <c r="N79" t="n">
         <v>0</v>
       </c>
@@ -5232,13 +4993,6 @@
         <v>0</v>
       </c>
       <c r="R79" t="n">
-        <v>0</v>
-      </c>
-      <c r="S79" t="inlineStr"/>
-      <c r="T79" t="n">
-        <v>0</v>
-      </c>
-      <c r="U79" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -5249,37 +5003,41 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-0.008716198511418777</v>
+        <v>-0.008716199320743526</v>
       </c>
       <c r="C80" t="n">
-        <v>-0.008716198511418777</v>
+        <v>-0.008716199320743526</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.008716198511418777</v>
+        <v>-0.008716199320743526</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.008716198511418777</v>
+        <v>-0.008716199320743526</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.008716198511418777</v>
-      </c>
-      <c r="G80" t="inlineStr"/>
+        <v>-0.008716199320743526</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-0.008716199320743427</v>
+      </c>
       <c r="H80" t="n">
-        <v>-0.008716198511418954</v>
+        <v>-0.008716199320743427</v>
       </c>
       <c r="I80" t="n">
-        <v>-0.008716198511418954</v>
+        <v>-0.008716199320743427</v>
       </c>
       <c r="J80" t="n">
-        <v>-0.008716198511418954</v>
+        <v>-0.008716199320743427</v>
       </c>
       <c r="K80" t="n">
-        <v>-0.008716198511418954</v>
+        <v>-0.008716199320743427</v>
       </c>
       <c r="L80" t="n">
-        <v>-0.008716198511418954</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>-0.01595359957006743</v>
+      </c>
+      <c r="M80" t="n">
+        <v>-0.01595359957006743</v>
+      </c>
       <c r="N80" t="n">
         <v>-0.01595359957006743</v>
       </c>
@@ -5290,16 +5048,9 @@
         <v>-0.01595359957006743</v>
       </c>
       <c r="Q80" t="n">
-        <v>-0.01595359957006743</v>
+        <v>11</v>
       </c>
       <c r="R80" t="n">
-        <v>-0.01595359957006743</v>
-      </c>
-      <c r="S80" t="inlineStr"/>
-      <c r="T80" t="n">
-        <v>11</v>
-      </c>
-      <c r="U80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5324,23 +5075,27 @@
       <c r="F81" t="n">
         <v>0.02839526850753251</v>
       </c>
-      <c r="G81" t="inlineStr"/>
+      <c r="G81" t="n">
+        <v>-0.02839526850753264</v>
+      </c>
       <c r="H81" t="n">
-        <v>-0.02839526850753262</v>
+        <v>-0.02839526850753264</v>
       </c>
       <c r="I81" t="n">
-        <v>-0.02839526850753262</v>
+        <v>-0.02839526850753264</v>
       </c>
       <c r="J81" t="n">
-        <v>-0.02839526850753262</v>
+        <v>-0.02839526850753264</v>
       </c>
       <c r="K81" t="n">
-        <v>-0.02839526850753262</v>
+        <v>-0.02839526850753264</v>
       </c>
       <c r="L81" t="n">
-        <v>-0.02839526850753262</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0.01956614972249702</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.01956614972249702</v>
+      </c>
       <c r="N81" t="n">
         <v>0.01956614972249702</v>
       </c>
@@ -5351,16 +5106,9 @@
         <v>0.01956614972249702</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.01956614972249702</v>
+        <v>1</v>
       </c>
       <c r="R81" t="n">
-        <v>0.01956614972249702</v>
-      </c>
-      <c r="S81" t="inlineStr"/>
-      <c r="T81" t="n">
-        <v>1</v>
-      </c>
-      <c r="U81" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -5371,57 +5119,54 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.03531744155444839</v>
+        <v>0.03531734795465337</v>
       </c>
       <c r="C82" t="n">
-        <v>0.1098545561488556</v>
+        <v>0.1098544558103944</v>
       </c>
       <c r="D82" t="n">
-        <v>0.1403069331125718</v>
+        <v>0.1403067396141508</v>
       </c>
       <c r="E82" t="n">
-        <v>0.1365299151341724</v>
+        <v>0.1365298123840758</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1365299151341724</v>
-      </c>
-      <c r="G82" t="inlineStr"/>
+        <v>0.1365298123840758</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.03531734795465296</v>
+      </c>
       <c r="H82" t="n">
-        <v>0.03531744155444865</v>
+        <v>0.1098544558103944</v>
       </c>
       <c r="I82" t="n">
-        <v>0.1098545561488556</v>
+        <v>0.1403067396141511</v>
       </c>
       <c r="J82" t="n">
-        <v>0.1403069331125718</v>
+        <v>0.1365298123840766</v>
       </c>
       <c r="K82" t="n">
-        <v>0.1365299151341725</v>
+        <v>0.1365298123840766</v>
       </c>
       <c r="L82" t="n">
-        <v>0.1365299151341725</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0.008627026634555536</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.05010940854973507</v>
+      </c>
       <c r="N82" t="n">
-        <v>0.008627026634555536</v>
+        <v>0.088243660481585</v>
       </c>
       <c r="O82" t="n">
-        <v>0.05010940854973507</v>
+        <v>0.08248274553685139</v>
       </c>
       <c r="P82" t="n">
-        <v>0.088243660481585</v>
+        <v>0.08248274553685139</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.08248274553685139</v>
+        <v>96</v>
       </c>
       <c r="R82" t="n">
-        <v>0.08248274553685139</v>
-      </c>
-      <c r="S82" t="inlineStr"/>
-      <c r="T82" t="n">
-        <v>96</v>
-      </c>
-      <c r="U82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5432,37 +5177,41 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-0.05616289330532735</v>
+        <v>-0.05616297343843806</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.05616289330532735</v>
+        <v>-0.05616297343843806</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.05616289330532735</v>
+        <v>-0.05616297343843806</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.05616289330532735</v>
+        <v>-0.05616297343843806</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.05616289330532735</v>
-      </c>
-      <c r="G83" t="inlineStr"/>
+        <v>-0.05616297343843806</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.05453493921359551</v>
+      </c>
       <c r="H83" t="n">
-        <v>0.05453485544939373</v>
+        <v>0.05453493921359551</v>
       </c>
       <c r="I83" t="n">
-        <v>0.05453485544939373</v>
+        <v>0.05453493921359551</v>
       </c>
       <c r="J83" t="n">
-        <v>0.05453485544939373</v>
+        <v>0.05453493921359551</v>
       </c>
       <c r="K83" t="n">
-        <v>0.05453485544939373</v>
+        <v>0.05453493921359551</v>
       </c>
       <c r="L83" t="n">
-        <v>0.05453485544939373</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>-0.01523361877839722</v>
+      </c>
+      <c r="M83" t="n">
+        <v>-0.01523361877839722</v>
+      </c>
       <c r="N83" t="n">
         <v>-0.01523361877839722</v>
       </c>
@@ -5473,16 +5222,9 @@
         <v>-0.01523361877839722</v>
       </c>
       <c r="Q83" t="n">
-        <v>-0.01523361877839722</v>
+        <v>25</v>
       </c>
       <c r="R83" t="n">
-        <v>-0.01523361877839722</v>
-      </c>
-      <c r="S83" t="inlineStr"/>
-      <c r="T83" t="n">
-        <v>25</v>
-      </c>
-      <c r="U83" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -5493,37 +5235,41 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-0.03562891152941184</v>
+        <v>-0.03562890856903323</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.03562891152941184</v>
+        <v>-0.03562890856903323</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.03562891152941184</v>
+        <v>-0.03562890856903323</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.03562891152941184</v>
+        <v>-0.03562890856903323</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.03562891152941184</v>
-      </c>
-      <c r="G84" t="inlineStr"/>
+        <v>-0.03562890856903323</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-0.03562890856903322</v>
+      </c>
       <c r="H84" t="n">
-        <v>-0.03562891152941209</v>
+        <v>-0.03562890856903322</v>
       </c>
       <c r="I84" t="n">
-        <v>-0.03562891152941209</v>
+        <v>-0.03562890856903322</v>
       </c>
       <c r="J84" t="n">
-        <v>-0.03562891152941209</v>
+        <v>-0.03562890856903322</v>
       </c>
       <c r="K84" t="n">
-        <v>-0.03562891152941209</v>
+        <v>-0.03562890856903322</v>
       </c>
       <c r="L84" t="n">
-        <v>-0.03562891152941209</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>-0.01033649884607192</v>
+      </c>
+      <c r="M84" t="n">
+        <v>-0.01033649884607192</v>
+      </c>
       <c r="N84" t="n">
         <v>-0.01033649884607192</v>
       </c>
@@ -5534,16 +5280,9 @@
         <v>-0.01033649884607192</v>
       </c>
       <c r="Q84" t="n">
-        <v>-0.01033649884607192</v>
+        <v>9</v>
       </c>
       <c r="R84" t="n">
-        <v>-0.01033649884607192</v>
-      </c>
-      <c r="S84" t="inlineStr"/>
-      <c r="T84" t="n">
-        <v>9</v>
-      </c>
-      <c r="U84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5568,23 +5307,27 @@
       <c r="F85" t="n">
         <v>-0.01835214250426162</v>
       </c>
-      <c r="G85" t="inlineStr"/>
+      <c r="G85" t="n">
+        <v>0.01617600623571234</v>
+      </c>
       <c r="H85" t="n">
-        <v>0.01617601493976879</v>
+        <v>0.01617600623571234</v>
       </c>
       <c r="I85" t="n">
-        <v>0.01617601493976879</v>
+        <v>0.01617600623571234</v>
       </c>
       <c r="J85" t="n">
-        <v>0.01617601493976879</v>
+        <v>0.01617600623571234</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01617601493976879</v>
+        <v>0.01617600623571234</v>
       </c>
       <c r="L85" t="n">
-        <v>0.01617601493976879</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>-0.04471132464448227</v>
+      </c>
+      <c r="M85" t="n">
+        <v>-0.04471132464448227</v>
+      </c>
       <c r="N85" t="n">
         <v>-0.04471132464448227</v>
       </c>
@@ -5595,16 +5338,9 @@
         <v>-0.04471132464448227</v>
       </c>
       <c r="Q85" t="n">
-        <v>-0.04471132464448227</v>
+        <v>27</v>
       </c>
       <c r="R85" t="n">
-        <v>-0.04471132464448227</v>
-      </c>
-      <c r="S85" t="inlineStr"/>
-      <c r="T85" t="n">
-        <v>27</v>
-      </c>
-      <c r="U85" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -5615,37 +5351,41 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-0.01143720205249565</v>
+        <v>-0.01143728725963911</v>
       </c>
       <c r="C86" t="n">
-        <v>-0.01143720205249565</v>
+        <v>-0.01143728725963911</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.01143720205249565</v>
+        <v>-0.01143728725963911</v>
       </c>
       <c r="E86" t="n">
-        <v>-0.01143720205249565</v>
+        <v>-0.01143728725963911</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.01143720205249565</v>
-      </c>
-      <c r="G86" t="inlineStr"/>
+        <v>-0.01143728725963911</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-0.01143728725963931</v>
+      </c>
       <c r="H86" t="n">
-        <v>-0.01143720205249576</v>
+        <v>-0.01143728725963931</v>
       </c>
       <c r="I86" t="n">
-        <v>-0.01143720205249576</v>
+        <v>-0.01143728725963931</v>
       </c>
       <c r="J86" t="n">
-        <v>-0.01143720205249576</v>
+        <v>-0.01143728725963931</v>
       </c>
       <c r="K86" t="n">
-        <v>-0.01143720205249576</v>
+        <v>-0.01143728725963931</v>
       </c>
       <c r="L86" t="n">
-        <v>-0.01143720205249576</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>-0.007079029824764999</v>
+      </c>
+      <c r="M86" t="n">
+        <v>-0.007079029824764999</v>
+      </c>
       <c r="N86" t="n">
         <v>-0.007079029824764999</v>
       </c>
@@ -5656,16 +5396,9 @@
         <v>-0.007079029824764999</v>
       </c>
       <c r="Q86" t="n">
-        <v>-0.007079029824764999</v>
+        <v>13</v>
       </c>
       <c r="R86" t="n">
-        <v>-0.007079029824764999</v>
-      </c>
-      <c r="S86" t="inlineStr"/>
-      <c r="T86" t="n">
-        <v>13</v>
-      </c>
-      <c r="U86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5676,37 +5409,41 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.02712862229467502</v>
+        <v>0.02712871078604494</v>
       </c>
       <c r="C87" t="n">
-        <v>0.02712862229467502</v>
+        <v>0.02712871078604494</v>
       </c>
       <c r="D87" t="n">
-        <v>0.02712862229467502</v>
+        <v>0.02712871078604494</v>
       </c>
       <c r="E87" t="n">
-        <v>0.02712862229467502</v>
+        <v>0.02712871078604494</v>
       </c>
       <c r="F87" t="n">
-        <v>0.02712862229467502</v>
-      </c>
-      <c r="G87" t="inlineStr"/>
+        <v>0.02712871078604494</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-0.02816014419489388</v>
+      </c>
       <c r="H87" t="n">
-        <v>-0.02816006156073107</v>
+        <v>-0.02816014419489388</v>
       </c>
       <c r="I87" t="n">
-        <v>-0.02816006156073107</v>
+        <v>-0.02816014419489388</v>
       </c>
       <c r="J87" t="n">
-        <v>-0.02816006156073107</v>
+        <v>-0.02816014419489388</v>
       </c>
       <c r="K87" t="n">
-        <v>-0.02816006156073107</v>
+        <v>-0.02816014419489388</v>
       </c>
       <c r="L87" t="n">
-        <v>-0.02816006156073107</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0.0221628975804177</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.0221628975804177</v>
+      </c>
       <c r="N87" t="n">
         <v>0.0221628975804177</v>
       </c>
@@ -5717,16 +5454,9 @@
         <v>0.0221628975804177</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.0221628975804177</v>
+        <v>13</v>
       </c>
       <c r="R87" t="n">
-        <v>0.0221628975804177</v>
-      </c>
-      <c r="S87" t="inlineStr"/>
-      <c r="T87" t="n">
-        <v>13</v>
-      </c>
-      <c r="U87" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -5737,39 +5467,43 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.08401911947960014</v>
+        <v>0.08401902560048664</v>
       </c>
       <c r="C88" t="n">
-        <v>0.09739648515493289</v>
+        <v>0.09739639011730179</v>
       </c>
       <c r="D88" t="n">
-        <v>0.09739648515493289</v>
+        <v>0.09739639011730179</v>
       </c>
       <c r="E88" t="n">
-        <v>0.09739648515493289</v>
+        <v>0.09739639011730179</v>
       </c>
       <c r="F88" t="n">
-        <v>0.09739648515493289</v>
-      </c>
-      <c r="G88" t="inlineStr"/>
+        <v>0.09739639011730179</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.08401902560048681</v>
+      </c>
       <c r="H88" t="n">
-        <v>0.0840191194796</v>
+        <v>0.09739639011730165</v>
       </c>
       <c r="I88" t="n">
-        <v>0.09739648515493236</v>
+        <v>0.09739639011730165</v>
       </c>
       <c r="J88" t="n">
-        <v>0.09739648515493236</v>
+        <v>0.09739639011730165</v>
       </c>
       <c r="K88" t="n">
-        <v>0.09739648515493236</v>
+        <v>0.09739639011730165</v>
       </c>
       <c r="L88" t="n">
-        <v>0.09739648515493236</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0.05421560675249947</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.09092683298453486</v>
+      </c>
       <c r="N88" t="n">
-        <v>0.05421560675249947</v>
+        <v>0.09092683298453486</v>
       </c>
       <c r="O88" t="n">
         <v>0.09092683298453486</v>
@@ -5778,16 +5512,9 @@
         <v>0.09092683298453486</v>
       </c>
       <c r="Q88" t="n">
-        <v>0.09092683298453486</v>
+        <v>49</v>
       </c>
       <c r="R88" t="n">
-        <v>0.09092683298453486</v>
-      </c>
-      <c r="S88" t="inlineStr"/>
-      <c r="T88" t="n">
-        <v>49</v>
-      </c>
-      <c r="U88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5812,23 +5539,27 @@
       <c r="F89" t="n">
         <v>-0.02289562460102811</v>
       </c>
-      <c r="G89" t="inlineStr"/>
+      <c r="G89" t="n">
+        <v>0.01993290225467167</v>
+      </c>
       <c r="H89" t="n">
-        <v>0.01993290225467188</v>
+        <v>0.01993290225467167</v>
       </c>
       <c r="I89" t="n">
-        <v>0.01993290225467188</v>
+        <v>0.01993290225467167</v>
       </c>
       <c r="J89" t="n">
-        <v>0.01993290225467188</v>
+        <v>0.01993290225467167</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01993290225467188</v>
+        <v>0.01993290225467167</v>
       </c>
       <c r="L89" t="n">
-        <v>0.01993290225467188</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0.001296390681449291</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.001296390681449291</v>
+      </c>
       <c r="N89" t="n">
         <v>0.001296390681449291</v>
       </c>
@@ -5839,16 +5570,9 @@
         <v>0.001296390681449291</v>
       </c>
       <c r="Q89" t="n">
-        <v>0.001296390681449291</v>
+        <v>23</v>
       </c>
       <c r="R89" t="n">
-        <v>0.001296390681449291</v>
-      </c>
-      <c r="S89" t="inlineStr"/>
-      <c r="T89" t="n">
-        <v>23</v>
-      </c>
-      <c r="U89" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -5873,23 +5597,27 @@
       <c r="F90" t="n">
         <v>-0.03737734263396213</v>
       </c>
-      <c r="G90" t="inlineStr"/>
+      <c r="G90" t="n">
+        <v>-0.0373773426339623</v>
+      </c>
       <c r="H90" t="n">
-        <v>-0.03737734263396229</v>
+        <v>-0.0373773426339623</v>
       </c>
       <c r="I90" t="n">
-        <v>-0.03737734263396229</v>
+        <v>-0.0373773426339623</v>
       </c>
       <c r="J90" t="n">
-        <v>-0.03737734263396229</v>
+        <v>-0.0373773426339623</v>
       </c>
       <c r="K90" t="n">
-        <v>-0.03737734263396229</v>
+        <v>-0.0373773426339623</v>
       </c>
       <c r="L90" t="n">
-        <v>-0.03737734263396229</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0.0012066266401572</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.0012066266401572</v>
+      </c>
       <c r="N90" t="n">
         <v>0.0012066266401572</v>
       </c>
@@ -5900,16 +5628,9 @@
         <v>0.0012066266401572</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.0012066266401572</v>
+        <v>12</v>
       </c>
       <c r="R90" t="n">
-        <v>0.0012066266401572</v>
-      </c>
-      <c r="S90" t="inlineStr"/>
-      <c r="T90" t="n">
-        <v>12</v>
-      </c>
-      <c r="U90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5934,23 +5655,27 @@
       <c r="F91" t="n">
         <v>0.01305789950019014</v>
       </c>
-      <c r="G91" t="inlineStr"/>
+      <c r="G91" t="n">
+        <v>-0.01308766779074636</v>
+      </c>
       <c r="H91" t="n">
-        <v>-0.01308766779074646</v>
+        <v>-0.01308766779074636</v>
       </c>
       <c r="I91" t="n">
-        <v>-0.01308766779074646</v>
+        <v>-0.01308766779074636</v>
       </c>
       <c r="J91" t="n">
-        <v>-0.01308766779074646</v>
+        <v>-0.01308766779074636</v>
       </c>
       <c r="K91" t="n">
-        <v>-0.01308766779074646</v>
+        <v>-0.01308766779074636</v>
       </c>
       <c r="L91" t="n">
-        <v>-0.01308766779074646</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0.009791720181288047</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.009791720181288047</v>
+      </c>
       <c r="N91" t="n">
         <v>0.009791720181288047</v>
       </c>
@@ -5961,16 +5686,9 @@
         <v>0.009791720181288047</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.009791720181288047</v>
+        <v>5</v>
       </c>
       <c r="R91" t="n">
-        <v>0.009791720181288047</v>
-      </c>
-      <c r="S91" t="inlineStr"/>
-      <c r="T91" t="n">
-        <v>5</v>
-      </c>
-      <c r="U91" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -5995,23 +5713,27 @@
       <c r="F92" t="n">
         <v>-0.005754695255560561</v>
       </c>
-      <c r="G92" t="inlineStr"/>
+      <c r="G92" t="n">
+        <v>-0.005754695255560612</v>
+      </c>
       <c r="H92" t="n">
-        <v>-0.005754695255560641</v>
+        <v>-0.005754695255560612</v>
       </c>
       <c r="I92" t="n">
-        <v>-0.005754695255560641</v>
+        <v>-0.005754695255560612</v>
       </c>
       <c r="J92" t="n">
-        <v>-0.005754695255560641</v>
+        <v>-0.005754695255560612</v>
       </c>
       <c r="K92" t="n">
-        <v>-0.005754695255560641</v>
+        <v>-0.005754695255560612</v>
       </c>
       <c r="L92" t="n">
-        <v>-0.005754695255560641</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0.0005705832608251727</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0.0005705832608251727</v>
+      </c>
       <c r="N92" t="n">
         <v>0.0005705832608251727</v>
       </c>
@@ -6022,85 +5744,75 @@
         <v>0.0005705832608251727</v>
       </c>
       <c r="Q92" t="n">
-        <v>0.0005705832608251727</v>
+        <v>1</v>
       </c>
       <c r="R92" t="n">
-        <v>0.0005705832608251727</v>
-      </c>
-      <c r="S92" t="inlineStr"/>
-      <c r="T92" t="n">
-        <v>1</v>
-      </c>
-      <c r="U92" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>2024-02-09/2024-03-15</t>
+          <t>2024-02-09/2024-03-18</t>
         </is>
       </c>
       <c r="B93" t="n">
         <v>-0.09594921784669851</v>
       </c>
       <c r="C93" t="n">
-        <v>-0.08594127859033195</v>
+        <v>-0.07310038384114895</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.08594127859033195</v>
+        <v>-0.07310038384114895</v>
       </c>
       <c r="E93" t="n">
-        <v>-0.08594127859033195</v>
+        <v>-0.07310038384114895</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.08594127859033195</v>
-      </c>
-      <c r="G93" t="inlineStr"/>
+        <v>-0.07310038384114895</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.103508420695298</v>
+      </c>
       <c r="H93" t="n">
-        <v>0.1035084206952977</v>
+        <v>0.07564291843839274</v>
       </c>
       <c r="I93" t="n">
-        <v>0.09096908831072342</v>
+        <v>0.07564291843839274</v>
       </c>
       <c r="J93" t="n">
-        <v>0.09096908831072342</v>
+        <v>0.07564291843839274</v>
       </c>
       <c r="K93" t="n">
-        <v>0.09096908831072342</v>
+        <v>0.07564291843839274</v>
       </c>
       <c r="L93" t="n">
-        <v>0.09096908831072342</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0.01931323113698513</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.02553218481680066</v>
+      </c>
       <c r="N93" t="n">
-        <v>0.01931323113698513</v>
+        <v>0.02553218481680066</v>
       </c>
       <c r="O93" t="n">
-        <v>0.01800019952407583</v>
+        <v>0.02553218481680066</v>
       </c>
       <c r="P93" t="n">
-        <v>0.01800019952407583</v>
+        <v>0.02553218481680066</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.01800019952407583</v>
+        <v>38</v>
       </c>
       <c r="R93" t="n">
-        <v>0.01800019952407583</v>
-      </c>
-      <c r="S93" t="inlineStr"/>
-      <c r="T93" t="n">
-        <v>35</v>
-      </c>
-      <c r="U93" t="n">
         <v>-1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="N1:S1"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="L1:P1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
